--- a/back-end/Web Dinamico 2/MRVMinem/Documentos/4.1 Plantilla_Vehiculos_electricos_Consumo.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/Documentos/4.1 Plantilla_Vehiculos_electricos_Consumo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23C9371-6CE2-4927-B59E-9D015786DD58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E28883-8764-4A29-BD9C-8E1D2DE1B8E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{404BD825-DD8F-4BD6-BD9D-EC9C81DC8949}"/>
   </bookViews>
@@ -38,8 +38,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Dell</author>
+  </authors>
+  <commentList>
+    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{19840F98-BCD1-4969-AF06-1D575C54E886}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Registrar sus datos según el ejemplo brindado. Borre estos datos y complete los suyos.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>Año</t>
   </si>
@@ -47,16 +81,10 @@
     <t>id</t>
   </si>
   <si>
-    <t>Tipo combustible</t>
-  </si>
-  <si>
     <t>Consumo de electricidad</t>
   </si>
   <si>
     <t>Placa</t>
-  </si>
-  <si>
-    <t>Año al que corresponde el registro</t>
   </si>
   <si>
     <t>Tipo_de_vehiculo</t>
@@ -98,41 +126,35 @@
     <t>Diesel</t>
   </si>
   <si>
-    <t>Distancia recorrida anualmente por vehículo en promedio</t>
-  </si>
-  <si>
     <t>Tipo de vehículo</t>
-  </si>
-  <si>
-    <t>Combustible del vehículo que ha sido reemplazado (line base).</t>
-  </si>
-  <si>
-    <t>Placa del vehículo eléctrico</t>
-  </si>
-  <si>
-    <t>Categoria del vehículo: automóvil, bus, etc.</t>
   </si>
   <si>
     <t>ABC-002</t>
   </si>
   <si>
-    <t>EYE-048</t>
+    <t>Combustible línea base</t>
   </si>
   <si>
-    <t>TEA-937</t>
+    <t>Año al que corresponde la adquisición del vehículo. Seleccione de la lista desplegable.</t>
   </si>
   <si>
-    <t>PLO-982</t>
+    <t>Categoria del vehículo: automóvil, bus, etc. Seleccione de la lista desplegable.</t>
   </si>
   <si>
-    <t>CHI-998</t>
+    <t>Combustible del vehículo que ha sido reemplazado (line base). Seleccione de la lista desplegable.</t>
+  </si>
+  <si>
+    <t>Consumo total de electricidad del vehículo en el año de uso. Inserte su dato.</t>
+  </si>
+  <si>
+    <t>Placa del vehículo eléctrico. Inserte su dato.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,8 +178,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -173,6 +208,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -228,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -260,6 +301,12 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -575,22 +622,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CDE5F59-D557-4A84-9E15-1D54D969FD3F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CDE5F59-D557-4A84-9E15-1D54D969FD3F}">
   <dimension ref="A1:G311"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="32.28515625" customWidth="1"/>
     <col min="6" max="6" width="25.5703125" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -601,174 +648,134 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="8" t="s">
         <v>3</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="A3" s="13">
         <v>2018</v>
       </c>
-      <c r="B3" s="9">
-        <f>VLOOKUP(C3,Tabla_tipve,2,)</f>
+      <c r="B3" s="13">
+        <f t="shared" ref="B3:B66" si="0">VLOOKUP(C3,Tabla_tipve,2,)</f>
         <v>1</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="9">
-        <f>VLOOKUP(E3,Tabla_combustible,2,)</f>
+      <c r="C3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="13">
+        <f t="shared" ref="D3:D66" si="1">VLOOKUP(E3,Tabla_combustible,2,)</f>
         <v>3</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="10">
+      <c r="E3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="14">
         <v>222</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>24</v>
+      <c r="G3" s="14" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
-        <v>2018</v>
-      </c>
-      <c r="B4" s="9">
-        <f>VLOOKUP(C4,Tabla_tipve,2,)</f>
-        <v>3</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="9">
-        <f>VLOOKUP(E4,Tabla_combustible,2,)</f>
-        <v>4</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="10">
-        <v>369</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>25</v>
-      </c>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
-        <v>2018</v>
-      </c>
-      <c r="B5" s="9">
-        <f>VLOOKUP(C5,Tabla_tipve,2,)</f>
-        <v>5</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="9">
-        <f>VLOOKUP(E5,Tabla_combustible,2,)</f>
-        <v>3</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="10">
-        <v>2430</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>26</v>
-      </c>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>2018</v>
-      </c>
-      <c r="B6" s="9">
-        <f>VLOOKUP(C6,Tabla_tipve,2,)</f>
-        <v>6</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="9">
-        <f>VLOOKUP(E6,Tabla_combustible,2,)</f>
-        <v>3</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="10">
-        <v>1660</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>27</v>
-      </c>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
-        <v>2018</v>
-      </c>
-      <c r="B7" s="9">
-        <f>VLOOKUP(C7,Tabla_tipve,2,)</f>
-        <v>1</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="9">
-        <f>VLOOKUP(E7,Tabla_combustible,2,)</f>
-        <v>3</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="10">
-        <v>43434</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>28</v>
-      </c>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="11" t="e">
-        <f>VLOOKUP(C8,Tabla_tipve,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11" t="e">
-        <f>VLOOKUP(E8,Tabla_combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E8" s="11"/>
@@ -778,12 +785,12 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="11" t="e">
-        <f>VLOOKUP(C9,Tabla_tipve,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11" t="e">
-        <f>VLOOKUP(E9,Tabla_combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E9" s="11"/>
@@ -793,12 +800,12 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="11" t="e">
-        <f>VLOOKUP(C10,Tabla_tipve,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11" t="e">
-        <f>VLOOKUP(E10,Tabla_combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E10" s="11"/>
@@ -808,12 +815,12 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="11" t="e">
-        <f>VLOOKUP(C11,Tabla_tipve,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11" t="e">
-        <f>VLOOKUP(E11,Tabla_combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E11" s="11"/>
@@ -823,12 +830,12 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="11" t="e">
-        <f>VLOOKUP(C12,Tabla_tipve,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11" t="e">
-        <f>VLOOKUP(E12,Tabla_combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E12" s="11"/>
@@ -838,12 +845,12 @@
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="11" t="e">
-        <f>VLOOKUP(C13,Tabla_tipve,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11" t="e">
-        <f>VLOOKUP(E13,Tabla_combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E13" s="11"/>
@@ -853,12 +860,12 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="11" t="e">
-        <f>VLOOKUP(C14,Tabla_tipve,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11" t="e">
-        <f>VLOOKUP(E14,Tabla_combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E14" s="11"/>
@@ -868,12 +875,12 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="11" t="e">
-        <f>VLOOKUP(C15,Tabla_tipve,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11" t="e">
-        <f>VLOOKUP(E15,Tabla_combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E15" s="11"/>
@@ -883,12 +890,12 @@
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="11" t="e">
-        <f>VLOOKUP(C16,Tabla_tipve,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11" t="e">
-        <f>VLOOKUP(E16,Tabla_combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E16" s="11"/>
@@ -898,12 +905,12 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="11" t="e">
-        <f>VLOOKUP(C17,Tabla_tipve,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11" t="e">
-        <f>VLOOKUP(E17,Tabla_combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E17" s="11"/>
@@ -913,12 +920,12 @@
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="11" t="e">
-        <f>VLOOKUP(C18,Tabla_tipve,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11" t="e">
-        <f>VLOOKUP(E18,Tabla_combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E18" s="11"/>
@@ -928,12 +935,12 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="11" t="e">
-        <f>VLOOKUP(C19,Tabla_tipve,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11" t="e">
-        <f>VLOOKUP(E19,Tabla_combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E19" s="11"/>
@@ -943,12 +950,12 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="11" t="e">
-        <f>VLOOKUP(C20,Tabla_tipve,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11" t="e">
-        <f>VLOOKUP(E20,Tabla_combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E20" s="11"/>
@@ -958,12 +965,12 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="11" t="e">
-        <f>VLOOKUP(C21,Tabla_tipve,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11" t="e">
-        <f>VLOOKUP(E21,Tabla_combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E21" s="11"/>
@@ -973,12 +980,12 @@
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="11" t="e">
-        <f>VLOOKUP(C22,Tabla_tipve,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11" t="e">
-        <f>VLOOKUP(E22,Tabla_combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E22" s="11"/>
@@ -988,12 +995,12 @@
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="11" t="e">
-        <f>VLOOKUP(C23,Tabla_tipve,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11" t="e">
-        <f>VLOOKUP(E23,Tabla_combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E23" s="11"/>
@@ -1003,12 +1010,12 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="11" t="e">
-        <f>VLOOKUP(C24,Tabla_tipve,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11" t="e">
-        <f>VLOOKUP(E24,Tabla_combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E24" s="11"/>
@@ -1018,12 +1025,12 @@
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="11" t="e">
-        <f>VLOOKUP(C25,Tabla_tipve,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11" t="e">
-        <f>VLOOKUP(E25,Tabla_combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E25" s="11"/>
@@ -1033,12 +1040,12 @@
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="11" t="e">
-        <f>VLOOKUP(C26,Tabla_tipve,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11" t="e">
-        <f>VLOOKUP(E26,Tabla_combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E26" s="11"/>
@@ -1048,12 +1055,12 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="11" t="e">
-        <f>VLOOKUP(C27,Tabla_tipve,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11" t="e">
-        <f>VLOOKUP(E27,Tabla_combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E27" s="11"/>
@@ -1063,12 +1070,12 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="11" t="e">
-        <f>VLOOKUP(C28,Tabla_tipve,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="11" t="e">
-        <f>VLOOKUP(E28,Tabla_combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E28" s="11"/>
@@ -1078,12 +1085,12 @@
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="11" t="e">
-        <f>VLOOKUP(C29,Tabla_tipve,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11" t="e">
-        <f>VLOOKUP(E29,Tabla_combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E29" s="11"/>
@@ -1093,12 +1100,12 @@
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="11" t="e">
-        <f>VLOOKUP(C30,Tabla_tipve,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11" t="e">
-        <f>VLOOKUP(E30,Tabla_combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E30" s="11"/>
@@ -1108,12 +1115,12 @@
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="11" t="e">
-        <f>VLOOKUP(C31,Tabla_tipve,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11" t="e">
-        <f>VLOOKUP(E31,Tabla_combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E31" s="11"/>
@@ -1123,12 +1130,12 @@
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="11" t="e">
-        <f>VLOOKUP(C32,Tabla_tipve,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11" t="e">
-        <f>VLOOKUP(E32,Tabla_combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E32" s="11"/>
@@ -1138,12 +1145,12 @@
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="11" t="e">
-        <f>VLOOKUP(C33,Tabla_tipve,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="11" t="e">
-        <f>VLOOKUP(E33,Tabla_combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E33" s="11"/>
@@ -1153,12 +1160,12 @@
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="11" t="e">
-        <f>VLOOKUP(C34,Tabla_tipve,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11" t="e">
-        <f>VLOOKUP(E34,Tabla_combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E34" s="11"/>
@@ -1168,12 +1175,12 @@
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="11" t="e">
-        <f>VLOOKUP(C35,Tabla_tipve,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="11" t="e">
-        <f>VLOOKUP(E35,Tabla_combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E35" s="11"/>
@@ -1183,12 +1190,12 @@
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="11" t="e">
-        <f>VLOOKUP(C36,Tabla_tipve,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11" t="e">
-        <f>VLOOKUP(E36,Tabla_combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E36" s="11"/>
@@ -1198,12 +1205,12 @@
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="11" t="e">
-        <f>VLOOKUP(C37,Tabla_tipve,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C37" s="11"/>
       <c r="D37" s="11" t="e">
-        <f>VLOOKUP(E37,Tabla_combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E37" s="11"/>
@@ -1213,12 +1220,12 @@
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="11" t="e">
-        <f>VLOOKUP(C38,Tabla_tipve,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11" t="e">
-        <f>VLOOKUP(E38,Tabla_combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E38" s="11"/>
@@ -1228,12 +1235,12 @@
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
       <c r="B39" s="11" t="e">
-        <f>VLOOKUP(C39,Tabla_tipve,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C39" s="11"/>
       <c r="D39" s="11" t="e">
-        <f>VLOOKUP(E39,Tabla_combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E39" s="11"/>
@@ -1243,12 +1250,12 @@
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
       <c r="B40" s="11" t="e">
-        <f>VLOOKUP(C40,Tabla_tipve,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11" t="e">
-        <f>VLOOKUP(E40,Tabla_combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E40" s="11"/>
@@ -1258,12 +1265,12 @@
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
       <c r="B41" s="11" t="e">
-        <f>VLOOKUP(C41,Tabla_tipve,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C41" s="11"/>
       <c r="D41" s="11" t="e">
-        <f>VLOOKUP(E41,Tabla_combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E41" s="11"/>
@@ -1273,12 +1280,12 @@
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
       <c r="B42" s="11" t="e">
-        <f>VLOOKUP(C42,Tabla_tipve,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="11" t="e">
-        <f>VLOOKUP(E42,Tabla_combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E42" s="11"/>
@@ -1288,12 +1295,12 @@
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="11" t="e">
-        <f>VLOOKUP(C43,Tabla_tipve,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C43" s="11"/>
       <c r="D43" s="11" t="e">
-        <f>VLOOKUP(E43,Tabla_combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E43" s="11"/>
@@ -1303,12 +1310,12 @@
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
       <c r="B44" s="11" t="e">
-        <f>VLOOKUP(C44,Tabla_tipve,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="11" t="e">
-        <f>VLOOKUP(E44,Tabla_combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E44" s="11"/>
@@ -1318,12 +1325,12 @@
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
       <c r="B45" s="11" t="e">
-        <f>VLOOKUP(C45,Tabla_tipve,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C45" s="11"/>
       <c r="D45" s="11" t="e">
-        <f>VLOOKUP(E45,Tabla_combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E45" s="11"/>
@@ -1333,12 +1340,12 @@
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
       <c r="B46" s="11" t="e">
-        <f>VLOOKUP(C46,Tabla_tipve,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11" t="e">
-        <f>VLOOKUP(E46,Tabla_combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E46" s="11"/>
@@ -1348,12 +1355,12 @@
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
       <c r="B47" s="11" t="e">
-        <f>VLOOKUP(C47,Tabla_tipve,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C47" s="11"/>
       <c r="D47" s="11" t="e">
-        <f>VLOOKUP(E47,Tabla_combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E47" s="11"/>
@@ -1363,12 +1370,12 @@
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
       <c r="B48" s="11" t="e">
-        <f>VLOOKUP(C48,Tabla_tipve,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11" t="e">
-        <f>VLOOKUP(E48,Tabla_combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E48" s="11"/>
@@ -1378,12 +1385,12 @@
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
       <c r="B49" s="11" t="e">
-        <f>VLOOKUP(C49,Tabla_tipve,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C49" s="11"/>
       <c r="D49" s="11" t="e">
-        <f>VLOOKUP(E49,Tabla_combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E49" s="11"/>
@@ -1393,12 +1400,12 @@
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
       <c r="B50" s="11" t="e">
-        <f>VLOOKUP(C50,Tabla_tipve,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11" t="e">
-        <f>VLOOKUP(E50,Tabla_combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E50" s="11"/>
@@ -1408,12 +1415,12 @@
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
       <c r="B51" s="11" t="e">
-        <f>VLOOKUP(C51,Tabla_tipve,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C51" s="11"/>
       <c r="D51" s="11" t="e">
-        <f>VLOOKUP(E51,Tabla_combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E51" s="11"/>
@@ -1423,12 +1430,12 @@
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
       <c r="B52" s="11" t="e">
-        <f>VLOOKUP(C52,Tabla_tipve,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C52" s="11"/>
       <c r="D52" s="11" t="e">
-        <f>VLOOKUP(E52,Tabla_combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E52" s="11"/>
@@ -1438,12 +1445,12 @@
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
       <c r="B53" s="11" t="e">
-        <f>VLOOKUP(C53,Tabla_tipve,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C53" s="11"/>
       <c r="D53" s="11" t="e">
-        <f>VLOOKUP(E53,Tabla_combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E53" s="11"/>
@@ -1453,12 +1460,12 @@
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
       <c r="B54" s="11" t="e">
-        <f>VLOOKUP(C54,Tabla_tipve,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11" t="e">
-        <f>VLOOKUP(E54,Tabla_combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E54" s="11"/>
@@ -1468,12 +1475,12 @@
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
       <c r="B55" s="11" t="e">
-        <f>VLOOKUP(C55,Tabla_tipve,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C55" s="11"/>
       <c r="D55" s="11" t="e">
-        <f>VLOOKUP(E55,Tabla_combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E55" s="11"/>
@@ -1483,12 +1490,12 @@
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
       <c r="B56" s="11" t="e">
-        <f>VLOOKUP(C56,Tabla_tipve,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11" t="e">
-        <f>VLOOKUP(E56,Tabla_combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E56" s="11"/>
@@ -1498,12 +1505,12 @@
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
       <c r="B57" s="11" t="e">
-        <f>VLOOKUP(C57,Tabla_tipve,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C57" s="11"/>
       <c r="D57" s="11" t="e">
-        <f>VLOOKUP(E57,Tabla_combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E57" s="11"/>
@@ -1513,12 +1520,12 @@
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
       <c r="B58" s="11" t="e">
-        <f>VLOOKUP(C58,Tabla_tipve,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C58" s="11"/>
       <c r="D58" s="11" t="e">
-        <f>VLOOKUP(E58,Tabla_combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E58" s="11"/>
@@ -1528,12 +1535,12 @@
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
       <c r="B59" s="11" t="e">
-        <f>VLOOKUP(C59,Tabla_tipve,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C59" s="11"/>
       <c r="D59" s="11" t="e">
-        <f>VLOOKUP(E59,Tabla_combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E59" s="11"/>
@@ -1543,12 +1550,12 @@
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
       <c r="B60" s="11" t="e">
-        <f>VLOOKUP(C60,Tabla_tipve,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C60" s="11"/>
       <c r="D60" s="11" t="e">
-        <f>VLOOKUP(E60,Tabla_combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E60" s="11"/>
@@ -1558,12 +1565,12 @@
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
       <c r="B61" s="11" t="e">
-        <f>VLOOKUP(C61,Tabla_tipve,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C61" s="11"/>
       <c r="D61" s="11" t="e">
-        <f>VLOOKUP(E61,Tabla_combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E61" s="11"/>
@@ -1573,12 +1580,12 @@
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
       <c r="B62" s="11" t="e">
-        <f>VLOOKUP(C62,Tabla_tipve,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C62" s="11"/>
       <c r="D62" s="11" t="e">
-        <f>VLOOKUP(E62,Tabla_combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E62" s="11"/>
@@ -1588,12 +1595,12 @@
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
       <c r="B63" s="11" t="e">
-        <f>VLOOKUP(C63,Tabla_tipve,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C63" s="11"/>
       <c r="D63" s="11" t="e">
-        <f>VLOOKUP(E63,Tabla_combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E63" s="11"/>
@@ -1603,12 +1610,12 @@
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
       <c r="B64" s="11" t="e">
-        <f>VLOOKUP(C64,Tabla_tipve,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C64" s="11"/>
       <c r="D64" s="11" t="e">
-        <f>VLOOKUP(E64,Tabla_combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E64" s="11"/>
@@ -1618,12 +1625,12 @@
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
       <c r="B65" s="11" t="e">
-        <f>VLOOKUP(C65,Tabla_tipve,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C65" s="11"/>
       <c r="D65" s="11" t="e">
-        <f>VLOOKUP(E65,Tabla_combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E65" s="11"/>
@@ -1633,12 +1640,12 @@
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
       <c r="B66" s="11" t="e">
-        <f>VLOOKUP(C66,Tabla_tipve,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C66" s="11"/>
       <c r="D66" s="11" t="e">
-        <f>VLOOKUP(E66,Tabla_combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E66" s="11"/>
@@ -1648,12 +1655,12 @@
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
       <c r="B67" s="11" t="e">
-        <f>VLOOKUP(C67,Tabla_tipve,2,)</f>
+        <f t="shared" ref="B67:B130" si="2">VLOOKUP(C67,Tabla_tipve,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="C67" s="11"/>
       <c r="D67" s="11" t="e">
-        <f>VLOOKUP(E67,Tabla_combustible,2,)</f>
+        <f t="shared" ref="D67:D130" si="3">VLOOKUP(E67,Tabla_combustible,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="E67" s="11"/>
@@ -1663,12 +1670,12 @@
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
       <c r="B68" s="11" t="e">
-        <f>VLOOKUP(C68,Tabla_tipve,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C68" s="11"/>
       <c r="D68" s="11" t="e">
-        <f>VLOOKUP(E68,Tabla_combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E68" s="11"/>
@@ -1678,12 +1685,12 @@
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
       <c r="B69" s="11" t="e">
-        <f>VLOOKUP(C69,Tabla_tipve,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C69" s="11"/>
       <c r="D69" s="11" t="e">
-        <f>VLOOKUP(E69,Tabla_combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E69" s="11"/>
@@ -1693,12 +1700,12 @@
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
       <c r="B70" s="11" t="e">
-        <f>VLOOKUP(C70,Tabla_tipve,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C70" s="11"/>
       <c r="D70" s="11" t="e">
-        <f>VLOOKUP(E70,Tabla_combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E70" s="11"/>
@@ -1708,12 +1715,12 @@
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="B71" s="11" t="e">
-        <f>VLOOKUP(C71,Tabla_tipve,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C71" s="11"/>
       <c r="D71" s="11" t="e">
-        <f>VLOOKUP(E71,Tabla_combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E71" s="11"/>
@@ -1723,12 +1730,12 @@
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
       <c r="B72" s="11" t="e">
-        <f>VLOOKUP(C72,Tabla_tipve,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C72" s="11"/>
       <c r="D72" s="11" t="e">
-        <f>VLOOKUP(E72,Tabla_combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E72" s="11"/>
@@ -1738,12 +1745,12 @@
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="11"/>
       <c r="B73" s="11" t="e">
-        <f>VLOOKUP(C73,Tabla_tipve,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C73" s="11"/>
       <c r="D73" s="11" t="e">
-        <f>VLOOKUP(E73,Tabla_combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E73" s="11"/>
@@ -1753,12 +1760,12 @@
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="11"/>
       <c r="B74" s="11" t="e">
-        <f>VLOOKUP(C74,Tabla_tipve,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C74" s="11"/>
       <c r="D74" s="11" t="e">
-        <f>VLOOKUP(E74,Tabla_combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E74" s="11"/>
@@ -1768,12 +1775,12 @@
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="11"/>
       <c r="B75" s="11" t="e">
-        <f>VLOOKUP(C75,Tabla_tipve,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C75" s="11"/>
       <c r="D75" s="11" t="e">
-        <f>VLOOKUP(E75,Tabla_combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E75" s="11"/>
@@ -1783,12 +1790,12 @@
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="11"/>
       <c r="B76" s="11" t="e">
-        <f>VLOOKUP(C76,Tabla_tipve,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C76" s="11"/>
       <c r="D76" s="11" t="e">
-        <f>VLOOKUP(E76,Tabla_combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E76" s="11"/>
@@ -1798,12 +1805,12 @@
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="11"/>
       <c r="B77" s="11" t="e">
-        <f>VLOOKUP(C77,Tabla_tipve,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C77" s="11"/>
       <c r="D77" s="11" t="e">
-        <f>VLOOKUP(E77,Tabla_combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E77" s="11"/>
@@ -1813,12 +1820,12 @@
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
       <c r="B78" s="11" t="e">
-        <f>VLOOKUP(C78,Tabla_tipve,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C78" s="11"/>
       <c r="D78" s="11" t="e">
-        <f>VLOOKUP(E78,Tabla_combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E78" s="11"/>
@@ -1828,12 +1835,12 @@
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="11"/>
       <c r="B79" s="11" t="e">
-        <f>VLOOKUP(C79,Tabla_tipve,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C79" s="11"/>
       <c r="D79" s="11" t="e">
-        <f>VLOOKUP(E79,Tabla_combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E79" s="11"/>
@@ -1843,12 +1850,12 @@
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="11"/>
       <c r="B80" s="11" t="e">
-        <f>VLOOKUP(C80,Tabla_tipve,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C80" s="11"/>
       <c r="D80" s="11" t="e">
-        <f>VLOOKUP(E80,Tabla_combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E80" s="11"/>
@@ -1858,12 +1865,12 @@
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="11"/>
       <c r="B81" s="11" t="e">
-        <f>VLOOKUP(C81,Tabla_tipve,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C81" s="11"/>
       <c r="D81" s="11" t="e">
-        <f>VLOOKUP(E81,Tabla_combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E81" s="11"/>
@@ -1873,12 +1880,12 @@
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="11"/>
       <c r="B82" s="11" t="e">
-        <f>VLOOKUP(C82,Tabla_tipve,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C82" s="11"/>
       <c r="D82" s="11" t="e">
-        <f>VLOOKUP(E82,Tabla_combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E82" s="11"/>
@@ -1888,12 +1895,12 @@
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="11"/>
       <c r="B83" s="11" t="e">
-        <f>VLOOKUP(C83,Tabla_tipve,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C83" s="11"/>
       <c r="D83" s="11" t="e">
-        <f>VLOOKUP(E83,Tabla_combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E83" s="11"/>
@@ -1903,12 +1910,12 @@
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="11"/>
       <c r="B84" s="11" t="e">
-        <f>VLOOKUP(C84,Tabla_tipve,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C84" s="11"/>
       <c r="D84" s="11" t="e">
-        <f>VLOOKUP(E84,Tabla_combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E84" s="11"/>
@@ -1918,12 +1925,12 @@
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="11"/>
       <c r="B85" s="11" t="e">
-        <f>VLOOKUP(C85,Tabla_tipve,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C85" s="11"/>
       <c r="D85" s="11" t="e">
-        <f>VLOOKUP(E85,Tabla_combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E85" s="11"/>
@@ -1933,12 +1940,12 @@
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="11"/>
       <c r="B86" s="11" t="e">
-        <f>VLOOKUP(C86,Tabla_tipve,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C86" s="11"/>
       <c r="D86" s="11" t="e">
-        <f>VLOOKUP(E86,Tabla_combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E86" s="11"/>
@@ -1948,12 +1955,12 @@
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="11"/>
       <c r="B87" s="11" t="e">
-        <f>VLOOKUP(C87,Tabla_tipve,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C87" s="11"/>
       <c r="D87" s="11" t="e">
-        <f>VLOOKUP(E87,Tabla_combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E87" s="11"/>
@@ -1963,12 +1970,12 @@
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="11"/>
       <c r="B88" s="11" t="e">
-        <f>VLOOKUP(C88,Tabla_tipve,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C88" s="11"/>
       <c r="D88" s="11" t="e">
-        <f>VLOOKUP(E88,Tabla_combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E88" s="11"/>
@@ -1978,12 +1985,12 @@
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="11"/>
       <c r="B89" s="11" t="e">
-        <f>VLOOKUP(C89,Tabla_tipve,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C89" s="11"/>
       <c r="D89" s="11" t="e">
-        <f>VLOOKUP(E89,Tabla_combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E89" s="11"/>
@@ -1993,12 +2000,12 @@
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="11"/>
       <c r="B90" s="11" t="e">
-        <f>VLOOKUP(C90,Tabla_tipve,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C90" s="11"/>
       <c r="D90" s="11" t="e">
-        <f>VLOOKUP(E90,Tabla_combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E90" s="11"/>
@@ -2008,12 +2015,12 @@
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="11"/>
       <c r="B91" s="11" t="e">
-        <f>VLOOKUP(C91,Tabla_tipve,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C91" s="11"/>
       <c r="D91" s="11" t="e">
-        <f>VLOOKUP(E91,Tabla_combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E91" s="11"/>
@@ -2023,12 +2030,12 @@
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="11"/>
       <c r="B92" s="11" t="e">
-        <f>VLOOKUP(C92,Tabla_tipve,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C92" s="11"/>
       <c r="D92" s="11" t="e">
-        <f>VLOOKUP(E92,Tabla_combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E92" s="11"/>
@@ -2038,12 +2045,12 @@
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="11"/>
       <c r="B93" s="11" t="e">
-        <f>VLOOKUP(C93,Tabla_tipve,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C93" s="11"/>
       <c r="D93" s="11" t="e">
-        <f>VLOOKUP(E93,Tabla_combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E93" s="11"/>
@@ -2053,12 +2060,12 @@
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="11"/>
       <c r="B94" s="11" t="e">
-        <f>VLOOKUP(C94,Tabla_tipve,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C94" s="11"/>
       <c r="D94" s="11" t="e">
-        <f>VLOOKUP(E94,Tabla_combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E94" s="11"/>
@@ -2068,12 +2075,12 @@
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="11"/>
       <c r="B95" s="11" t="e">
-        <f>VLOOKUP(C95,Tabla_tipve,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C95" s="11"/>
       <c r="D95" s="11" t="e">
-        <f>VLOOKUP(E95,Tabla_combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E95" s="11"/>
@@ -2083,12 +2090,12 @@
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="11"/>
       <c r="B96" s="11" t="e">
-        <f>VLOOKUP(C96,Tabla_tipve,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C96" s="11"/>
       <c r="D96" s="11" t="e">
-        <f>VLOOKUP(E96,Tabla_combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E96" s="11"/>
@@ -2098,12 +2105,12 @@
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="11"/>
       <c r="B97" s="11" t="e">
-        <f>VLOOKUP(C97,Tabla_tipve,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C97" s="11"/>
       <c r="D97" s="11" t="e">
-        <f>VLOOKUP(E97,Tabla_combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E97" s="11"/>
@@ -2113,12 +2120,12 @@
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="11"/>
       <c r="B98" s="11" t="e">
-        <f>VLOOKUP(C98,Tabla_tipve,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C98" s="11"/>
       <c r="D98" s="11" t="e">
-        <f>VLOOKUP(E98,Tabla_combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E98" s="11"/>
@@ -2128,12 +2135,12 @@
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="11"/>
       <c r="B99" s="11" t="e">
-        <f>VLOOKUP(C99,Tabla_tipve,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C99" s="11"/>
       <c r="D99" s="11" t="e">
-        <f>VLOOKUP(E99,Tabla_combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E99" s="11"/>
@@ -2143,12 +2150,12 @@
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="11"/>
       <c r="B100" s="11" t="e">
-        <f>VLOOKUP(C100,Tabla_tipve,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C100" s="11"/>
       <c r="D100" s="11" t="e">
-        <f>VLOOKUP(E100,Tabla_combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E100" s="11"/>
@@ -2158,12 +2165,12 @@
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="11"/>
       <c r="B101" s="11" t="e">
-        <f>VLOOKUP(C101,Tabla_tipve,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C101" s="11"/>
       <c r="D101" s="11" t="e">
-        <f>VLOOKUP(E101,Tabla_combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E101" s="11"/>
@@ -2173,12 +2180,12 @@
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="11"/>
       <c r="B102" s="11" t="e">
-        <f>VLOOKUP(C102,Tabla_tipve,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C102" s="11"/>
       <c r="D102" s="11" t="e">
-        <f>VLOOKUP(E102,Tabla_combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E102" s="11"/>
@@ -2188,12 +2195,12 @@
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="11"/>
       <c r="B103" s="11" t="e">
-        <f>VLOOKUP(C103,Tabla_tipve,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C103" s="11"/>
       <c r="D103" s="11" t="e">
-        <f>VLOOKUP(E103,Tabla_combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E103" s="11"/>
@@ -2203,12 +2210,12 @@
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="11"/>
       <c r="B104" s="11" t="e">
-        <f>VLOOKUP(C104,Tabla_tipve,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C104" s="11"/>
       <c r="D104" s="11" t="e">
-        <f>VLOOKUP(E104,Tabla_combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E104" s="11"/>
@@ -2218,12 +2225,12 @@
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="11"/>
       <c r="B105" s="11" t="e">
-        <f>VLOOKUP(C105,Tabla_tipve,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C105" s="11"/>
       <c r="D105" s="11" t="e">
-        <f>VLOOKUP(E105,Tabla_combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E105" s="11"/>
@@ -2233,12 +2240,12 @@
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="11"/>
       <c r="B106" s="11" t="e">
-        <f>VLOOKUP(C106,Tabla_tipve,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C106" s="11"/>
       <c r="D106" s="11" t="e">
-        <f>VLOOKUP(E106,Tabla_combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E106" s="11"/>
@@ -2248,12 +2255,12 @@
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="11"/>
       <c r="B107" s="11" t="e">
-        <f>VLOOKUP(C107,Tabla_tipve,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C107" s="11"/>
       <c r="D107" s="11" t="e">
-        <f>VLOOKUP(E107,Tabla_combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E107" s="11"/>
@@ -2263,12 +2270,12 @@
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="11"/>
       <c r="B108" s="11" t="e">
-        <f>VLOOKUP(C108,Tabla_tipve,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C108" s="11"/>
       <c r="D108" s="11" t="e">
-        <f>VLOOKUP(E108,Tabla_combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E108" s="11"/>
@@ -2278,12 +2285,12 @@
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="11"/>
       <c r="B109" s="11" t="e">
-        <f>VLOOKUP(C109,Tabla_tipve,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C109" s="11"/>
       <c r="D109" s="11" t="e">
-        <f>VLOOKUP(E109,Tabla_combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E109" s="11"/>
@@ -2293,12 +2300,12 @@
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="11"/>
       <c r="B110" s="11" t="e">
-        <f>VLOOKUP(C110,Tabla_tipve,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C110" s="11"/>
       <c r="D110" s="11" t="e">
-        <f>VLOOKUP(E110,Tabla_combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E110" s="11"/>
@@ -2308,12 +2315,12 @@
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="11"/>
       <c r="B111" s="11" t="e">
-        <f>VLOOKUP(C111,Tabla_tipve,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C111" s="11"/>
       <c r="D111" s="11" t="e">
-        <f>VLOOKUP(E111,Tabla_combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E111" s="11"/>
@@ -2323,12 +2330,12 @@
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="11"/>
       <c r="B112" s="11" t="e">
-        <f>VLOOKUP(C112,Tabla_tipve,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C112" s="11"/>
       <c r="D112" s="11" t="e">
-        <f>VLOOKUP(E112,Tabla_combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E112" s="11"/>
@@ -2338,12 +2345,12 @@
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="11"/>
       <c r="B113" s="11" t="e">
-        <f>VLOOKUP(C113,Tabla_tipve,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C113" s="11"/>
       <c r="D113" s="11" t="e">
-        <f>VLOOKUP(E113,Tabla_combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E113" s="11"/>
@@ -2353,12 +2360,12 @@
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="11"/>
       <c r="B114" s="11" t="e">
-        <f>VLOOKUP(C114,Tabla_tipve,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C114" s="11"/>
       <c r="D114" s="11" t="e">
-        <f>VLOOKUP(E114,Tabla_combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E114" s="11"/>
@@ -2368,12 +2375,12 @@
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="11"/>
       <c r="B115" s="11" t="e">
-        <f>VLOOKUP(C115,Tabla_tipve,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C115" s="11"/>
       <c r="D115" s="11" t="e">
-        <f>VLOOKUP(E115,Tabla_combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E115" s="11"/>
@@ -2383,12 +2390,12 @@
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="11"/>
       <c r="B116" s="11" t="e">
-        <f>VLOOKUP(C116,Tabla_tipve,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C116" s="11"/>
       <c r="D116" s="11" t="e">
-        <f>VLOOKUP(E116,Tabla_combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E116" s="11"/>
@@ -2398,12 +2405,12 @@
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="11"/>
       <c r="B117" s="11" t="e">
-        <f>VLOOKUP(C117,Tabla_tipve,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C117" s="11"/>
       <c r="D117" s="11" t="e">
-        <f>VLOOKUP(E117,Tabla_combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E117" s="11"/>
@@ -2413,12 +2420,12 @@
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="11"/>
       <c r="B118" s="11" t="e">
-        <f>VLOOKUP(C118,Tabla_tipve,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C118" s="11"/>
       <c r="D118" s="11" t="e">
-        <f>VLOOKUP(E118,Tabla_combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E118" s="11"/>
@@ -2428,12 +2435,12 @@
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="11"/>
       <c r="B119" s="11" t="e">
-        <f>VLOOKUP(C119,Tabla_tipve,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C119" s="11"/>
       <c r="D119" s="11" t="e">
-        <f>VLOOKUP(E119,Tabla_combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E119" s="11"/>
@@ -2443,12 +2450,12 @@
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="11"/>
       <c r="B120" s="11" t="e">
-        <f>VLOOKUP(C120,Tabla_tipve,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C120" s="11"/>
       <c r="D120" s="11" t="e">
-        <f>VLOOKUP(E120,Tabla_combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E120" s="11"/>
@@ -2458,12 +2465,12 @@
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="11"/>
       <c r="B121" s="11" t="e">
-        <f>VLOOKUP(C121,Tabla_tipve,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C121" s="11"/>
       <c r="D121" s="11" t="e">
-        <f>VLOOKUP(E121,Tabla_combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E121" s="11"/>
@@ -2473,12 +2480,12 @@
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="11"/>
       <c r="B122" s="11" t="e">
-        <f>VLOOKUP(C122,Tabla_tipve,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C122" s="11"/>
       <c r="D122" s="11" t="e">
-        <f>VLOOKUP(E122,Tabla_combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E122" s="11"/>
@@ -2488,12 +2495,12 @@
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="11"/>
       <c r="B123" s="11" t="e">
-        <f>VLOOKUP(C123,Tabla_tipve,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C123" s="11"/>
       <c r="D123" s="11" t="e">
-        <f>VLOOKUP(E123,Tabla_combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E123" s="11"/>
@@ -2503,12 +2510,12 @@
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="11"/>
       <c r="B124" s="11" t="e">
-        <f>VLOOKUP(C124,Tabla_tipve,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C124" s="11"/>
       <c r="D124" s="11" t="e">
-        <f>VLOOKUP(E124,Tabla_combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E124" s="11"/>
@@ -2518,12 +2525,12 @@
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="11"/>
       <c r="B125" s="11" t="e">
-        <f>VLOOKUP(C125,Tabla_tipve,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C125" s="11"/>
       <c r="D125" s="11" t="e">
-        <f>VLOOKUP(E125,Tabla_combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E125" s="11"/>
@@ -2533,12 +2540,12 @@
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="11"/>
       <c r="B126" s="11" t="e">
-        <f>VLOOKUP(C126,Tabla_tipve,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C126" s="11"/>
       <c r="D126" s="11" t="e">
-        <f>VLOOKUP(E126,Tabla_combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E126" s="11"/>
@@ -2548,12 +2555,12 @@
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="11"/>
       <c r="B127" s="11" t="e">
-        <f>VLOOKUP(C127,Tabla_tipve,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C127" s="11"/>
       <c r="D127" s="11" t="e">
-        <f>VLOOKUP(E127,Tabla_combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E127" s="11"/>
@@ -2563,12 +2570,12 @@
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="11"/>
       <c r="B128" s="11" t="e">
-        <f>VLOOKUP(C128,Tabla_tipve,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C128" s="11"/>
       <c r="D128" s="11" t="e">
-        <f>VLOOKUP(E128,Tabla_combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E128" s="11"/>
@@ -2578,12 +2585,12 @@
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="11"/>
       <c r="B129" s="11" t="e">
-        <f>VLOOKUP(C129,Tabla_tipve,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C129" s="11"/>
       <c r="D129" s="11" t="e">
-        <f>VLOOKUP(E129,Tabla_combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E129" s="11"/>
@@ -2593,12 +2600,12 @@
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="11"/>
       <c r="B130" s="11" t="e">
-        <f>VLOOKUP(C130,Tabla_tipve,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C130" s="11"/>
       <c r="D130" s="11" t="e">
-        <f>VLOOKUP(E130,Tabla_combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E130" s="11"/>
@@ -2608,12 +2615,12 @@
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="11"/>
       <c r="B131" s="11" t="e">
-        <f>VLOOKUP(C131,Tabla_tipve,2,)</f>
+        <f t="shared" ref="B131:B194" si="4">VLOOKUP(C131,Tabla_tipve,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="C131" s="11"/>
       <c r="D131" s="11" t="e">
-        <f>VLOOKUP(E131,Tabla_combustible,2,)</f>
+        <f t="shared" ref="D131:D194" si="5">VLOOKUP(E131,Tabla_combustible,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="E131" s="11"/>
@@ -2623,12 +2630,12 @@
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="11"/>
       <c r="B132" s="11" t="e">
-        <f>VLOOKUP(C132,Tabla_tipve,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C132" s="11"/>
       <c r="D132" s="11" t="e">
-        <f>VLOOKUP(E132,Tabla_combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E132" s="11"/>
@@ -2638,12 +2645,12 @@
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="11"/>
       <c r="B133" s="11" t="e">
-        <f>VLOOKUP(C133,Tabla_tipve,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C133" s="11"/>
       <c r="D133" s="11" t="e">
-        <f>VLOOKUP(E133,Tabla_combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E133" s="11"/>
@@ -2653,12 +2660,12 @@
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="11"/>
       <c r="B134" s="11" t="e">
-        <f>VLOOKUP(C134,Tabla_tipve,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C134" s="11"/>
       <c r="D134" s="11" t="e">
-        <f>VLOOKUP(E134,Tabla_combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E134" s="11"/>
@@ -2668,12 +2675,12 @@
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="11"/>
       <c r="B135" s="11" t="e">
-        <f>VLOOKUP(C135,Tabla_tipve,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C135" s="11"/>
       <c r="D135" s="11" t="e">
-        <f>VLOOKUP(E135,Tabla_combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E135" s="11"/>
@@ -2683,12 +2690,12 @@
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="11"/>
       <c r="B136" s="11" t="e">
-        <f>VLOOKUP(C136,Tabla_tipve,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C136" s="11"/>
       <c r="D136" s="11" t="e">
-        <f>VLOOKUP(E136,Tabla_combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E136" s="11"/>
@@ -2698,12 +2705,12 @@
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="11"/>
       <c r="B137" s="11" t="e">
-        <f>VLOOKUP(C137,Tabla_tipve,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C137" s="11"/>
       <c r="D137" s="11" t="e">
-        <f>VLOOKUP(E137,Tabla_combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E137" s="11"/>
@@ -2713,12 +2720,12 @@
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="11"/>
       <c r="B138" s="11" t="e">
-        <f>VLOOKUP(C138,Tabla_tipve,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C138" s="11"/>
       <c r="D138" s="11" t="e">
-        <f>VLOOKUP(E138,Tabla_combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E138" s="11"/>
@@ -2728,12 +2735,12 @@
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="11"/>
       <c r="B139" s="11" t="e">
-        <f>VLOOKUP(C139,Tabla_tipve,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C139" s="11"/>
       <c r="D139" s="11" t="e">
-        <f>VLOOKUP(E139,Tabla_combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E139" s="11"/>
@@ -2743,12 +2750,12 @@
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="11"/>
       <c r="B140" s="11" t="e">
-        <f>VLOOKUP(C140,Tabla_tipve,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C140" s="11"/>
       <c r="D140" s="11" t="e">
-        <f>VLOOKUP(E140,Tabla_combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E140" s="11"/>
@@ -2758,12 +2765,12 @@
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="11"/>
       <c r="B141" s="11" t="e">
-        <f>VLOOKUP(C141,Tabla_tipve,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C141" s="11"/>
       <c r="D141" s="11" t="e">
-        <f>VLOOKUP(E141,Tabla_combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E141" s="11"/>
@@ -2773,12 +2780,12 @@
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="11"/>
       <c r="B142" s="11" t="e">
-        <f>VLOOKUP(C142,Tabla_tipve,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C142" s="11"/>
       <c r="D142" s="11" t="e">
-        <f>VLOOKUP(E142,Tabla_combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E142" s="11"/>
@@ -2788,12 +2795,12 @@
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="11"/>
       <c r="B143" s="11" t="e">
-        <f>VLOOKUP(C143,Tabla_tipve,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C143" s="11"/>
       <c r="D143" s="11" t="e">
-        <f>VLOOKUP(E143,Tabla_combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E143" s="11"/>
@@ -2803,12 +2810,12 @@
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="11"/>
       <c r="B144" s="11" t="e">
-        <f>VLOOKUP(C144,Tabla_tipve,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C144" s="11"/>
       <c r="D144" s="11" t="e">
-        <f>VLOOKUP(E144,Tabla_combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E144" s="11"/>
@@ -2818,12 +2825,12 @@
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="11"/>
       <c r="B145" s="11" t="e">
-        <f>VLOOKUP(C145,Tabla_tipve,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C145" s="11"/>
       <c r="D145" s="11" t="e">
-        <f>VLOOKUP(E145,Tabla_combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E145" s="11"/>
@@ -2833,12 +2840,12 @@
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="11"/>
       <c r="B146" s="11" t="e">
-        <f>VLOOKUP(C146,Tabla_tipve,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C146" s="11"/>
       <c r="D146" s="11" t="e">
-        <f>VLOOKUP(E146,Tabla_combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E146" s="11"/>
@@ -2848,12 +2855,12 @@
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="11"/>
       <c r="B147" s="11" t="e">
-        <f>VLOOKUP(C147,Tabla_tipve,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C147" s="11"/>
       <c r="D147" s="11" t="e">
-        <f>VLOOKUP(E147,Tabla_combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E147" s="11"/>
@@ -2863,12 +2870,12 @@
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="11"/>
       <c r="B148" s="11" t="e">
-        <f>VLOOKUP(C148,Tabla_tipve,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C148" s="11"/>
       <c r="D148" s="11" t="e">
-        <f>VLOOKUP(E148,Tabla_combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E148" s="11"/>
@@ -2878,12 +2885,12 @@
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="11"/>
       <c r="B149" s="11" t="e">
-        <f>VLOOKUP(C149,Tabla_tipve,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C149" s="11"/>
       <c r="D149" s="11" t="e">
-        <f>VLOOKUP(E149,Tabla_combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E149" s="11"/>
@@ -2893,12 +2900,12 @@
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="11"/>
       <c r="B150" s="11" t="e">
-        <f>VLOOKUP(C150,Tabla_tipve,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C150" s="11"/>
       <c r="D150" s="11" t="e">
-        <f>VLOOKUP(E150,Tabla_combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E150" s="11"/>
@@ -2908,12 +2915,12 @@
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="11"/>
       <c r="B151" s="11" t="e">
-        <f>VLOOKUP(C151,Tabla_tipve,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C151" s="11"/>
       <c r="D151" s="11" t="e">
-        <f>VLOOKUP(E151,Tabla_combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E151" s="11"/>
@@ -2923,12 +2930,12 @@
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="11"/>
       <c r="B152" s="11" t="e">
-        <f>VLOOKUP(C152,Tabla_tipve,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C152" s="11"/>
       <c r="D152" s="11" t="e">
-        <f>VLOOKUP(E152,Tabla_combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E152" s="11"/>
@@ -2938,12 +2945,12 @@
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="11"/>
       <c r="B153" s="11" t="e">
-        <f>VLOOKUP(C153,Tabla_tipve,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C153" s="11"/>
       <c r="D153" s="11" t="e">
-        <f>VLOOKUP(E153,Tabla_combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E153" s="11"/>
@@ -2953,12 +2960,12 @@
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="11"/>
       <c r="B154" s="11" t="e">
-        <f>VLOOKUP(C154,Tabla_tipve,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C154" s="11"/>
       <c r="D154" s="11" t="e">
-        <f>VLOOKUP(E154,Tabla_combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E154" s="11"/>
@@ -2968,12 +2975,12 @@
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="11"/>
       <c r="B155" s="11" t="e">
-        <f>VLOOKUP(C155,Tabla_tipve,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C155" s="11"/>
       <c r="D155" s="11" t="e">
-        <f>VLOOKUP(E155,Tabla_combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E155" s="11"/>
@@ -2983,12 +2990,12 @@
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="11"/>
       <c r="B156" s="11" t="e">
-        <f>VLOOKUP(C156,Tabla_tipve,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C156" s="11"/>
       <c r="D156" s="11" t="e">
-        <f>VLOOKUP(E156,Tabla_combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E156" s="11"/>
@@ -2998,12 +3005,12 @@
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="11"/>
       <c r="B157" s="11" t="e">
-        <f>VLOOKUP(C157,Tabla_tipve,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C157" s="11"/>
       <c r="D157" s="11" t="e">
-        <f>VLOOKUP(E157,Tabla_combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E157" s="11"/>
@@ -3013,12 +3020,12 @@
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="11"/>
       <c r="B158" s="11" t="e">
-        <f>VLOOKUP(C158,Tabla_tipve,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C158" s="11"/>
       <c r="D158" s="11" t="e">
-        <f>VLOOKUP(E158,Tabla_combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E158" s="11"/>
@@ -3028,12 +3035,12 @@
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="11"/>
       <c r="B159" s="11" t="e">
-        <f>VLOOKUP(C159,Tabla_tipve,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C159" s="11"/>
       <c r="D159" s="11" t="e">
-        <f>VLOOKUP(E159,Tabla_combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E159" s="11"/>
@@ -3043,12 +3050,12 @@
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="11"/>
       <c r="B160" s="11" t="e">
-        <f>VLOOKUP(C160,Tabla_tipve,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C160" s="11"/>
       <c r="D160" s="11" t="e">
-        <f>VLOOKUP(E160,Tabla_combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E160" s="11"/>
@@ -3058,12 +3065,12 @@
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="11"/>
       <c r="B161" s="11" t="e">
-        <f>VLOOKUP(C161,Tabla_tipve,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C161" s="11"/>
       <c r="D161" s="11" t="e">
-        <f>VLOOKUP(E161,Tabla_combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E161" s="11"/>
@@ -3073,12 +3080,12 @@
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="11"/>
       <c r="B162" s="11" t="e">
-        <f>VLOOKUP(C162,Tabla_tipve,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C162" s="11"/>
       <c r="D162" s="11" t="e">
-        <f>VLOOKUP(E162,Tabla_combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E162" s="11"/>
@@ -3088,12 +3095,12 @@
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="11"/>
       <c r="B163" s="11" t="e">
-        <f>VLOOKUP(C163,Tabla_tipve,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C163" s="11"/>
       <c r="D163" s="11" t="e">
-        <f>VLOOKUP(E163,Tabla_combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E163" s="11"/>
@@ -3103,12 +3110,12 @@
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="11"/>
       <c r="B164" s="11" t="e">
-        <f>VLOOKUP(C164,Tabla_tipve,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C164" s="11"/>
       <c r="D164" s="11" t="e">
-        <f>VLOOKUP(E164,Tabla_combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E164" s="11"/>
@@ -3118,12 +3125,12 @@
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="11"/>
       <c r="B165" s="11" t="e">
-        <f>VLOOKUP(C165,Tabla_tipve,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C165" s="11"/>
       <c r="D165" s="11" t="e">
-        <f>VLOOKUP(E165,Tabla_combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E165" s="11"/>
@@ -3133,12 +3140,12 @@
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="11"/>
       <c r="B166" s="11" t="e">
-        <f>VLOOKUP(C166,Tabla_tipve,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C166" s="11"/>
       <c r="D166" s="11" t="e">
-        <f>VLOOKUP(E166,Tabla_combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E166" s="11"/>
@@ -3148,12 +3155,12 @@
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="11"/>
       <c r="B167" s="11" t="e">
-        <f>VLOOKUP(C167,Tabla_tipve,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C167" s="11"/>
       <c r="D167" s="11" t="e">
-        <f>VLOOKUP(E167,Tabla_combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E167" s="11"/>
@@ -3163,12 +3170,12 @@
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="11"/>
       <c r="B168" s="11" t="e">
-        <f>VLOOKUP(C168,Tabla_tipve,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C168" s="11"/>
       <c r="D168" s="11" t="e">
-        <f>VLOOKUP(E168,Tabla_combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E168" s="11"/>
@@ -3178,12 +3185,12 @@
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="11"/>
       <c r="B169" s="11" t="e">
-        <f>VLOOKUP(C169,Tabla_tipve,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C169" s="11"/>
       <c r="D169" s="11" t="e">
-        <f>VLOOKUP(E169,Tabla_combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E169" s="11"/>
@@ -3193,12 +3200,12 @@
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="11"/>
       <c r="B170" s="11" t="e">
-        <f>VLOOKUP(C170,Tabla_tipve,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C170" s="11"/>
       <c r="D170" s="11" t="e">
-        <f>VLOOKUP(E170,Tabla_combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E170" s="11"/>
@@ -3208,12 +3215,12 @@
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="11"/>
       <c r="B171" s="11" t="e">
-        <f>VLOOKUP(C171,Tabla_tipve,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C171" s="11"/>
       <c r="D171" s="11" t="e">
-        <f>VLOOKUP(E171,Tabla_combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E171" s="11"/>
@@ -3223,12 +3230,12 @@
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="11"/>
       <c r="B172" s="11" t="e">
-        <f>VLOOKUP(C172,Tabla_tipve,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C172" s="11"/>
       <c r="D172" s="11" t="e">
-        <f>VLOOKUP(E172,Tabla_combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E172" s="11"/>
@@ -3238,12 +3245,12 @@
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="11"/>
       <c r="B173" s="11" t="e">
-        <f>VLOOKUP(C173,Tabla_tipve,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C173" s="11"/>
       <c r="D173" s="11" t="e">
-        <f>VLOOKUP(E173,Tabla_combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E173" s="11"/>
@@ -3253,12 +3260,12 @@
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="11"/>
       <c r="B174" s="11" t="e">
-        <f>VLOOKUP(C174,Tabla_tipve,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C174" s="11"/>
       <c r="D174" s="11" t="e">
-        <f>VLOOKUP(E174,Tabla_combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E174" s="11"/>
@@ -3268,12 +3275,12 @@
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="11"/>
       <c r="B175" s="11" t="e">
-        <f>VLOOKUP(C175,Tabla_tipve,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C175" s="11"/>
       <c r="D175" s="11" t="e">
-        <f>VLOOKUP(E175,Tabla_combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E175" s="11"/>
@@ -3283,12 +3290,12 @@
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="11"/>
       <c r="B176" s="11" t="e">
-        <f>VLOOKUP(C176,Tabla_tipve,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C176" s="11"/>
       <c r="D176" s="11" t="e">
-        <f>VLOOKUP(E176,Tabla_combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E176" s="11"/>
@@ -3298,12 +3305,12 @@
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="11"/>
       <c r="B177" s="11" t="e">
-        <f>VLOOKUP(C177,Tabla_tipve,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C177" s="11"/>
       <c r="D177" s="11" t="e">
-        <f>VLOOKUP(E177,Tabla_combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E177" s="11"/>
@@ -3313,12 +3320,12 @@
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="11"/>
       <c r="B178" s="11" t="e">
-        <f>VLOOKUP(C178,Tabla_tipve,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C178" s="11"/>
       <c r="D178" s="11" t="e">
-        <f>VLOOKUP(E178,Tabla_combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E178" s="11"/>
@@ -3328,12 +3335,12 @@
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="11"/>
       <c r="B179" s="11" t="e">
-        <f>VLOOKUP(C179,Tabla_tipve,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C179" s="11"/>
       <c r="D179" s="11" t="e">
-        <f>VLOOKUP(E179,Tabla_combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E179" s="11"/>
@@ -3343,12 +3350,12 @@
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="11"/>
       <c r="B180" s="11" t="e">
-        <f>VLOOKUP(C180,Tabla_tipve,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C180" s="11"/>
       <c r="D180" s="11" t="e">
-        <f>VLOOKUP(E180,Tabla_combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E180" s="11"/>
@@ -3358,12 +3365,12 @@
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="11"/>
       <c r="B181" s="11" t="e">
-        <f>VLOOKUP(C181,Tabla_tipve,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C181" s="11"/>
       <c r="D181" s="11" t="e">
-        <f>VLOOKUP(E181,Tabla_combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E181" s="11"/>
@@ -3373,12 +3380,12 @@
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="11"/>
       <c r="B182" s="11" t="e">
-        <f>VLOOKUP(C182,Tabla_tipve,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C182" s="11"/>
       <c r="D182" s="11" t="e">
-        <f>VLOOKUP(E182,Tabla_combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E182" s="11"/>
@@ -3388,12 +3395,12 @@
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="11"/>
       <c r="B183" s="11" t="e">
-        <f>VLOOKUP(C183,Tabla_tipve,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C183" s="11"/>
       <c r="D183" s="11" t="e">
-        <f>VLOOKUP(E183,Tabla_combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E183" s="11"/>
@@ -3403,12 +3410,12 @@
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="11"/>
       <c r="B184" s="11" t="e">
-        <f>VLOOKUP(C184,Tabla_tipve,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C184" s="11"/>
       <c r="D184" s="11" t="e">
-        <f>VLOOKUP(E184,Tabla_combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E184" s="11"/>
@@ -3418,12 +3425,12 @@
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="11"/>
       <c r="B185" s="11" t="e">
-        <f>VLOOKUP(C185,Tabla_tipve,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C185" s="11"/>
       <c r="D185" s="11" t="e">
-        <f>VLOOKUP(E185,Tabla_combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E185" s="11"/>
@@ -3433,12 +3440,12 @@
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="11"/>
       <c r="B186" s="11" t="e">
-        <f>VLOOKUP(C186,Tabla_tipve,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C186" s="11"/>
       <c r="D186" s="11" t="e">
-        <f>VLOOKUP(E186,Tabla_combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E186" s="11"/>
@@ -3448,12 +3455,12 @@
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="11"/>
       <c r="B187" s="11" t="e">
-        <f>VLOOKUP(C187,Tabla_tipve,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C187" s="11"/>
       <c r="D187" s="11" t="e">
-        <f>VLOOKUP(E187,Tabla_combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E187" s="11"/>
@@ -3463,12 +3470,12 @@
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="11"/>
       <c r="B188" s="11" t="e">
-        <f>VLOOKUP(C188,Tabla_tipve,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C188" s="11"/>
       <c r="D188" s="11" t="e">
-        <f>VLOOKUP(E188,Tabla_combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E188" s="11"/>
@@ -3478,12 +3485,12 @@
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="11"/>
       <c r="B189" s="11" t="e">
-        <f>VLOOKUP(C189,Tabla_tipve,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C189" s="11"/>
       <c r="D189" s="11" t="e">
-        <f>VLOOKUP(E189,Tabla_combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E189" s="11"/>
@@ -3493,12 +3500,12 @@
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="11"/>
       <c r="B190" s="11" t="e">
-        <f>VLOOKUP(C190,Tabla_tipve,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C190" s="11"/>
       <c r="D190" s="11" t="e">
-        <f>VLOOKUP(E190,Tabla_combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E190" s="11"/>
@@ -3508,12 +3515,12 @@
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="11"/>
       <c r="B191" s="11" t="e">
-        <f>VLOOKUP(C191,Tabla_tipve,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C191" s="11"/>
       <c r="D191" s="11" t="e">
-        <f>VLOOKUP(E191,Tabla_combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E191" s="11"/>
@@ -3523,12 +3530,12 @@
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="11"/>
       <c r="B192" s="11" t="e">
-        <f>VLOOKUP(C192,Tabla_tipve,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C192" s="11"/>
       <c r="D192" s="11" t="e">
-        <f>VLOOKUP(E192,Tabla_combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E192" s="11"/>
@@ -3538,12 +3545,12 @@
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="11"/>
       <c r="B193" s="11" t="e">
-        <f>VLOOKUP(C193,Tabla_tipve,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C193" s="11"/>
       <c r="D193" s="11" t="e">
-        <f>VLOOKUP(E193,Tabla_combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E193" s="11"/>
@@ -3553,12 +3560,12 @@
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="11"/>
       <c r="B194" s="11" t="e">
-        <f>VLOOKUP(C194,Tabla_tipve,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C194" s="11"/>
       <c r="D194" s="11" t="e">
-        <f>VLOOKUP(E194,Tabla_combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E194" s="11"/>
@@ -3568,12 +3575,12 @@
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="11"/>
       <c r="B195" s="11" t="e">
-        <f>VLOOKUP(C195,Tabla_tipve,2,)</f>
+        <f t="shared" ref="B195:B258" si="6">VLOOKUP(C195,Tabla_tipve,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="C195" s="11"/>
       <c r="D195" s="11" t="e">
-        <f>VLOOKUP(E195,Tabla_combustible,2,)</f>
+        <f t="shared" ref="D195:D258" si="7">VLOOKUP(E195,Tabla_combustible,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="E195" s="11"/>
@@ -3583,12 +3590,12 @@
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="11"/>
       <c r="B196" s="11" t="e">
-        <f>VLOOKUP(C196,Tabla_tipve,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C196" s="11"/>
       <c r="D196" s="11" t="e">
-        <f>VLOOKUP(E196,Tabla_combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E196" s="11"/>
@@ -3598,12 +3605,12 @@
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="11"/>
       <c r="B197" s="11" t="e">
-        <f>VLOOKUP(C197,Tabla_tipve,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C197" s="11"/>
       <c r="D197" s="11" t="e">
-        <f>VLOOKUP(E197,Tabla_combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E197" s="11"/>
@@ -3613,12 +3620,12 @@
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="11"/>
       <c r="B198" s="11" t="e">
-        <f>VLOOKUP(C198,Tabla_tipve,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C198" s="11"/>
       <c r="D198" s="11" t="e">
-        <f>VLOOKUP(E198,Tabla_combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E198" s="11"/>
@@ -3628,12 +3635,12 @@
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="11"/>
       <c r="B199" s="11" t="e">
-        <f>VLOOKUP(C199,Tabla_tipve,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C199" s="11"/>
       <c r="D199" s="11" t="e">
-        <f>VLOOKUP(E199,Tabla_combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E199" s="11"/>
@@ -3643,12 +3650,12 @@
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="11"/>
       <c r="B200" s="11" t="e">
-        <f>VLOOKUP(C200,Tabla_tipve,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C200" s="11"/>
       <c r="D200" s="11" t="e">
-        <f>VLOOKUP(E200,Tabla_combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E200" s="11"/>
@@ -3658,12 +3665,12 @@
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="11"/>
       <c r="B201" s="11" t="e">
-        <f>VLOOKUP(C201,Tabla_tipve,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C201" s="11"/>
       <c r="D201" s="11" t="e">
-        <f>VLOOKUP(E201,Tabla_combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E201" s="11"/>
@@ -3673,12 +3680,12 @@
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="11"/>
       <c r="B202" s="11" t="e">
-        <f>VLOOKUP(C202,Tabla_tipve,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C202" s="11"/>
       <c r="D202" s="11" t="e">
-        <f>VLOOKUP(E202,Tabla_combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E202" s="11"/>
@@ -3688,12 +3695,12 @@
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="11"/>
       <c r="B203" s="11" t="e">
-        <f>VLOOKUP(C203,Tabla_tipve,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C203" s="11"/>
       <c r="D203" s="11" t="e">
-        <f>VLOOKUP(E203,Tabla_combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E203" s="11"/>
@@ -3703,12 +3710,12 @@
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="11"/>
       <c r="B204" s="11" t="e">
-        <f>VLOOKUP(C204,Tabla_tipve,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C204" s="11"/>
       <c r="D204" s="11" t="e">
-        <f>VLOOKUP(E204,Tabla_combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E204" s="11"/>
@@ -3718,12 +3725,12 @@
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="11"/>
       <c r="B205" s="11" t="e">
-        <f>VLOOKUP(C205,Tabla_tipve,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C205" s="11"/>
       <c r="D205" s="11" t="e">
-        <f>VLOOKUP(E205,Tabla_combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E205" s="11"/>
@@ -3733,12 +3740,12 @@
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="11"/>
       <c r="B206" s="11" t="e">
-        <f>VLOOKUP(C206,Tabla_tipve,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C206" s="11"/>
       <c r="D206" s="11" t="e">
-        <f>VLOOKUP(E206,Tabla_combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E206" s="11"/>
@@ -3748,12 +3755,12 @@
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="11"/>
       <c r="B207" s="11" t="e">
-        <f>VLOOKUP(C207,Tabla_tipve,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C207" s="11"/>
       <c r="D207" s="11" t="e">
-        <f>VLOOKUP(E207,Tabla_combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E207" s="11"/>
@@ -3763,12 +3770,12 @@
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="11"/>
       <c r="B208" s="11" t="e">
-        <f>VLOOKUP(C208,Tabla_tipve,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C208" s="11"/>
       <c r="D208" s="11" t="e">
-        <f>VLOOKUP(E208,Tabla_combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E208" s="11"/>
@@ -3778,12 +3785,12 @@
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="11"/>
       <c r="B209" s="11" t="e">
-        <f>VLOOKUP(C209,Tabla_tipve,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C209" s="11"/>
       <c r="D209" s="11" t="e">
-        <f>VLOOKUP(E209,Tabla_combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E209" s="11"/>
@@ -3793,12 +3800,12 @@
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="11"/>
       <c r="B210" s="11" t="e">
-        <f>VLOOKUP(C210,Tabla_tipve,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C210" s="11"/>
       <c r="D210" s="11" t="e">
-        <f>VLOOKUP(E210,Tabla_combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E210" s="11"/>
@@ -3808,12 +3815,12 @@
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="11"/>
       <c r="B211" s="11" t="e">
-        <f>VLOOKUP(C211,Tabla_tipve,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C211" s="11"/>
       <c r="D211" s="11" t="e">
-        <f>VLOOKUP(E211,Tabla_combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E211" s="11"/>
@@ -3823,12 +3830,12 @@
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="11"/>
       <c r="B212" s="11" t="e">
-        <f>VLOOKUP(C212,Tabla_tipve,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C212" s="11"/>
       <c r="D212" s="11" t="e">
-        <f>VLOOKUP(E212,Tabla_combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E212" s="11"/>
@@ -3838,12 +3845,12 @@
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="11"/>
       <c r="B213" s="11" t="e">
-        <f>VLOOKUP(C213,Tabla_tipve,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C213" s="11"/>
       <c r="D213" s="11" t="e">
-        <f>VLOOKUP(E213,Tabla_combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E213" s="11"/>
@@ -3853,12 +3860,12 @@
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="11"/>
       <c r="B214" s="11" t="e">
-        <f>VLOOKUP(C214,Tabla_tipve,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C214" s="11"/>
       <c r="D214" s="11" t="e">
-        <f>VLOOKUP(E214,Tabla_combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E214" s="11"/>
@@ -3868,12 +3875,12 @@
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="11"/>
       <c r="B215" s="11" t="e">
-        <f>VLOOKUP(C215,Tabla_tipve,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C215" s="11"/>
       <c r="D215" s="11" t="e">
-        <f>VLOOKUP(E215,Tabla_combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E215" s="11"/>
@@ -3883,12 +3890,12 @@
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="11"/>
       <c r="B216" s="11" t="e">
-        <f>VLOOKUP(C216,Tabla_tipve,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C216" s="11"/>
       <c r="D216" s="11" t="e">
-        <f>VLOOKUP(E216,Tabla_combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E216" s="11"/>
@@ -3898,12 +3905,12 @@
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="11"/>
       <c r="B217" s="11" t="e">
-        <f>VLOOKUP(C217,Tabla_tipve,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C217" s="11"/>
       <c r="D217" s="11" t="e">
-        <f>VLOOKUP(E217,Tabla_combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E217" s="11"/>
@@ -3913,12 +3920,12 @@
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="11"/>
       <c r="B218" s="11" t="e">
-        <f>VLOOKUP(C218,Tabla_tipve,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C218" s="11"/>
       <c r="D218" s="11" t="e">
-        <f>VLOOKUP(E218,Tabla_combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E218" s="11"/>
@@ -3928,12 +3935,12 @@
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="11"/>
       <c r="B219" s="11" t="e">
-        <f>VLOOKUP(C219,Tabla_tipve,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C219" s="11"/>
       <c r="D219" s="11" t="e">
-        <f>VLOOKUP(E219,Tabla_combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E219" s="11"/>
@@ -3943,12 +3950,12 @@
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="11"/>
       <c r="B220" s="11" t="e">
-        <f>VLOOKUP(C220,Tabla_tipve,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C220" s="11"/>
       <c r="D220" s="11" t="e">
-        <f>VLOOKUP(E220,Tabla_combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E220" s="11"/>
@@ -3958,12 +3965,12 @@
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="11"/>
       <c r="B221" s="11" t="e">
-        <f>VLOOKUP(C221,Tabla_tipve,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C221" s="11"/>
       <c r="D221" s="11" t="e">
-        <f>VLOOKUP(E221,Tabla_combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E221" s="11"/>
@@ -3973,12 +3980,12 @@
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="11"/>
       <c r="B222" s="11" t="e">
-        <f>VLOOKUP(C222,Tabla_tipve,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C222" s="11"/>
       <c r="D222" s="11" t="e">
-        <f>VLOOKUP(E222,Tabla_combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E222" s="11"/>
@@ -3988,12 +3995,12 @@
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="11"/>
       <c r="B223" s="11" t="e">
-        <f>VLOOKUP(C223,Tabla_tipve,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C223" s="11"/>
       <c r="D223" s="11" t="e">
-        <f>VLOOKUP(E223,Tabla_combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E223" s="11"/>
@@ -4003,12 +4010,12 @@
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="11"/>
       <c r="B224" s="11" t="e">
-        <f>VLOOKUP(C224,Tabla_tipve,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C224" s="11"/>
       <c r="D224" s="11" t="e">
-        <f>VLOOKUP(E224,Tabla_combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E224" s="11"/>
@@ -4018,12 +4025,12 @@
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="11"/>
       <c r="B225" s="11" t="e">
-        <f>VLOOKUP(C225,Tabla_tipve,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C225" s="11"/>
       <c r="D225" s="11" t="e">
-        <f>VLOOKUP(E225,Tabla_combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E225" s="11"/>
@@ -4033,12 +4040,12 @@
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="11"/>
       <c r="B226" s="11" t="e">
-        <f>VLOOKUP(C226,Tabla_tipve,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C226" s="11"/>
       <c r="D226" s="11" t="e">
-        <f>VLOOKUP(E226,Tabla_combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E226" s="11"/>
@@ -4048,12 +4055,12 @@
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="11"/>
       <c r="B227" s="11" t="e">
-        <f>VLOOKUP(C227,Tabla_tipve,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C227" s="11"/>
       <c r="D227" s="11" t="e">
-        <f>VLOOKUP(E227,Tabla_combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E227" s="11"/>
@@ -4063,12 +4070,12 @@
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="11"/>
       <c r="B228" s="11" t="e">
-        <f>VLOOKUP(C228,Tabla_tipve,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C228" s="11"/>
       <c r="D228" s="11" t="e">
-        <f>VLOOKUP(E228,Tabla_combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E228" s="11"/>
@@ -4078,12 +4085,12 @@
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="11"/>
       <c r="B229" s="11" t="e">
-        <f>VLOOKUP(C229,Tabla_tipve,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C229" s="11"/>
       <c r="D229" s="11" t="e">
-        <f>VLOOKUP(E229,Tabla_combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E229" s="11"/>
@@ -4093,12 +4100,12 @@
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="11"/>
       <c r="B230" s="11" t="e">
-        <f>VLOOKUP(C230,Tabla_tipve,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C230" s="11"/>
       <c r="D230" s="11" t="e">
-        <f>VLOOKUP(E230,Tabla_combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E230" s="11"/>
@@ -4108,12 +4115,12 @@
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="11"/>
       <c r="B231" s="11" t="e">
-        <f>VLOOKUP(C231,Tabla_tipve,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C231" s="11"/>
       <c r="D231" s="11" t="e">
-        <f>VLOOKUP(E231,Tabla_combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E231" s="11"/>
@@ -4123,12 +4130,12 @@
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="11"/>
       <c r="B232" s="11" t="e">
-        <f>VLOOKUP(C232,Tabla_tipve,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C232" s="11"/>
       <c r="D232" s="11" t="e">
-        <f>VLOOKUP(E232,Tabla_combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E232" s="11"/>
@@ -4138,12 +4145,12 @@
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="11"/>
       <c r="B233" s="11" t="e">
-        <f>VLOOKUP(C233,Tabla_tipve,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C233" s="11"/>
       <c r="D233" s="11" t="e">
-        <f>VLOOKUP(E233,Tabla_combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E233" s="11"/>
@@ -4153,12 +4160,12 @@
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="11"/>
       <c r="B234" s="11" t="e">
-        <f>VLOOKUP(C234,Tabla_tipve,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C234" s="11"/>
       <c r="D234" s="11" t="e">
-        <f>VLOOKUP(E234,Tabla_combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E234" s="11"/>
@@ -4168,12 +4175,12 @@
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="11"/>
       <c r="B235" s="11" t="e">
-        <f>VLOOKUP(C235,Tabla_tipve,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C235" s="11"/>
       <c r="D235" s="11" t="e">
-        <f>VLOOKUP(E235,Tabla_combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E235" s="11"/>
@@ -4183,12 +4190,12 @@
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="11"/>
       <c r="B236" s="11" t="e">
-        <f>VLOOKUP(C236,Tabla_tipve,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C236" s="11"/>
       <c r="D236" s="11" t="e">
-        <f>VLOOKUP(E236,Tabla_combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E236" s="11"/>
@@ -4198,12 +4205,12 @@
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="11"/>
       <c r="B237" s="11" t="e">
-        <f>VLOOKUP(C237,Tabla_tipve,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C237" s="11"/>
       <c r="D237" s="11" t="e">
-        <f>VLOOKUP(E237,Tabla_combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E237" s="11"/>
@@ -4213,12 +4220,12 @@
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="11"/>
       <c r="B238" s="11" t="e">
-        <f>VLOOKUP(C238,Tabla_tipve,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C238" s="11"/>
       <c r="D238" s="11" t="e">
-        <f>VLOOKUP(E238,Tabla_combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E238" s="11"/>
@@ -4228,12 +4235,12 @@
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="11"/>
       <c r="B239" s="11" t="e">
-        <f>VLOOKUP(C239,Tabla_tipve,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C239" s="11"/>
       <c r="D239" s="11" t="e">
-        <f>VLOOKUP(E239,Tabla_combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E239" s="11"/>
@@ -4243,12 +4250,12 @@
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="11"/>
       <c r="B240" s="11" t="e">
-        <f>VLOOKUP(C240,Tabla_tipve,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C240" s="11"/>
       <c r="D240" s="11" t="e">
-        <f>VLOOKUP(E240,Tabla_combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E240" s="11"/>
@@ -4258,12 +4265,12 @@
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="11"/>
       <c r="B241" s="11" t="e">
-        <f>VLOOKUP(C241,Tabla_tipve,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C241" s="11"/>
       <c r="D241" s="11" t="e">
-        <f>VLOOKUP(E241,Tabla_combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E241" s="11"/>
@@ -4273,12 +4280,12 @@
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="11"/>
       <c r="B242" s="11" t="e">
-        <f>VLOOKUP(C242,Tabla_tipve,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C242" s="11"/>
       <c r="D242" s="11" t="e">
-        <f>VLOOKUP(E242,Tabla_combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E242" s="11"/>
@@ -4288,12 +4295,12 @@
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="11"/>
       <c r="B243" s="11" t="e">
-        <f>VLOOKUP(C243,Tabla_tipve,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C243" s="11"/>
       <c r="D243" s="11" t="e">
-        <f>VLOOKUP(E243,Tabla_combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E243" s="11"/>
@@ -4303,12 +4310,12 @@
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="11"/>
       <c r="B244" s="11" t="e">
-        <f>VLOOKUP(C244,Tabla_tipve,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C244" s="11"/>
       <c r="D244" s="11" t="e">
-        <f>VLOOKUP(E244,Tabla_combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E244" s="11"/>
@@ -4318,12 +4325,12 @@
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="11"/>
       <c r="B245" s="11" t="e">
-        <f>VLOOKUP(C245,Tabla_tipve,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C245" s="11"/>
       <c r="D245" s="11" t="e">
-        <f>VLOOKUP(E245,Tabla_combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E245" s="11"/>
@@ -4333,12 +4340,12 @@
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="11"/>
       <c r="B246" s="11" t="e">
-        <f>VLOOKUP(C246,Tabla_tipve,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C246" s="11"/>
       <c r="D246" s="11" t="e">
-        <f>VLOOKUP(E246,Tabla_combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E246" s="11"/>
@@ -4348,12 +4355,12 @@
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="11"/>
       <c r="B247" s="11" t="e">
-        <f>VLOOKUP(C247,Tabla_tipve,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C247" s="11"/>
       <c r="D247" s="11" t="e">
-        <f>VLOOKUP(E247,Tabla_combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E247" s="11"/>
@@ -4363,12 +4370,12 @@
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="11"/>
       <c r="B248" s="11" t="e">
-        <f>VLOOKUP(C248,Tabla_tipve,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C248" s="11"/>
       <c r="D248" s="11" t="e">
-        <f>VLOOKUP(E248,Tabla_combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E248" s="11"/>
@@ -4378,12 +4385,12 @@
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="11"/>
       <c r="B249" s="11" t="e">
-        <f>VLOOKUP(C249,Tabla_tipve,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C249" s="11"/>
       <c r="D249" s="11" t="e">
-        <f>VLOOKUP(E249,Tabla_combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E249" s="11"/>
@@ -4393,12 +4400,12 @@
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="11"/>
       <c r="B250" s="11" t="e">
-        <f>VLOOKUP(C250,Tabla_tipve,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C250" s="11"/>
       <c r="D250" s="11" t="e">
-        <f>VLOOKUP(E250,Tabla_combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E250" s="11"/>
@@ -4408,12 +4415,12 @@
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="11"/>
       <c r="B251" s="11" t="e">
-        <f>VLOOKUP(C251,Tabla_tipve,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C251" s="11"/>
       <c r="D251" s="11" t="e">
-        <f>VLOOKUP(E251,Tabla_combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E251" s="11"/>
@@ -4423,12 +4430,12 @@
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="11"/>
       <c r="B252" s="11" t="e">
-        <f>VLOOKUP(C252,Tabla_tipve,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C252" s="11"/>
       <c r="D252" s="11" t="e">
-        <f>VLOOKUP(E252,Tabla_combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E252" s="11"/>
@@ -4438,12 +4445,12 @@
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="11"/>
       <c r="B253" s="11" t="e">
-        <f>VLOOKUP(C253,Tabla_tipve,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C253" s="11"/>
       <c r="D253" s="11" t="e">
-        <f>VLOOKUP(E253,Tabla_combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E253" s="11"/>
@@ -4453,12 +4460,12 @@
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="11"/>
       <c r="B254" s="11" t="e">
-        <f>VLOOKUP(C254,Tabla_tipve,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C254" s="11"/>
       <c r="D254" s="11" t="e">
-        <f>VLOOKUP(E254,Tabla_combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E254" s="11"/>
@@ -4468,12 +4475,12 @@
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="11"/>
       <c r="B255" s="11" t="e">
-        <f>VLOOKUP(C255,Tabla_tipve,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C255" s="11"/>
       <c r="D255" s="11" t="e">
-        <f>VLOOKUP(E255,Tabla_combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E255" s="11"/>
@@ -4483,12 +4490,12 @@
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="11"/>
       <c r="B256" s="11" t="e">
-        <f>VLOOKUP(C256,Tabla_tipve,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C256" s="11"/>
       <c r="D256" s="11" t="e">
-        <f>VLOOKUP(E256,Tabla_combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E256" s="11"/>
@@ -4498,12 +4505,12 @@
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="11"/>
       <c r="B257" s="11" t="e">
-        <f>VLOOKUP(C257,Tabla_tipve,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C257" s="11"/>
       <c r="D257" s="11" t="e">
-        <f>VLOOKUP(E257,Tabla_combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E257" s="11"/>
@@ -4513,12 +4520,12 @@
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="11"/>
       <c r="B258" s="11" t="e">
-        <f>VLOOKUP(C258,Tabla_tipve,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C258" s="11"/>
       <c r="D258" s="11" t="e">
-        <f>VLOOKUP(E258,Tabla_combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E258" s="11"/>
@@ -4528,12 +4535,12 @@
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="11"/>
       <c r="B259" s="11" t="e">
-        <f>VLOOKUP(C259,Tabla_tipve,2,)</f>
+        <f t="shared" ref="B259:B322" si="8">VLOOKUP(C259,Tabla_tipve,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="C259" s="11"/>
       <c r="D259" s="11" t="e">
-        <f>VLOOKUP(E259,Tabla_combustible,2,)</f>
+        <f t="shared" ref="D259:D322" si="9">VLOOKUP(E259,Tabla_combustible,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="E259" s="11"/>
@@ -4543,12 +4550,12 @@
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="11"/>
       <c r="B260" s="11" t="e">
-        <f>VLOOKUP(C260,Tabla_tipve,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C260" s="11"/>
       <c r="D260" s="11" t="e">
-        <f>VLOOKUP(E260,Tabla_combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E260" s="11"/>
@@ -4558,12 +4565,12 @@
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="11"/>
       <c r="B261" s="11" t="e">
-        <f>VLOOKUP(C261,Tabla_tipve,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C261" s="11"/>
       <c r="D261" s="11" t="e">
-        <f>VLOOKUP(E261,Tabla_combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E261" s="11"/>
@@ -4573,12 +4580,12 @@
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="11"/>
       <c r="B262" s="11" t="e">
-        <f>VLOOKUP(C262,Tabla_tipve,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C262" s="11"/>
       <c r="D262" s="11" t="e">
-        <f>VLOOKUP(E262,Tabla_combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E262" s="11"/>
@@ -4588,12 +4595,12 @@
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="11"/>
       <c r="B263" s="11" t="e">
-        <f>VLOOKUP(C263,Tabla_tipve,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C263" s="11"/>
       <c r="D263" s="11" t="e">
-        <f>VLOOKUP(E263,Tabla_combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E263" s="11"/>
@@ -4603,12 +4610,12 @@
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="11"/>
       <c r="B264" s="11" t="e">
-        <f>VLOOKUP(C264,Tabla_tipve,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C264" s="11"/>
       <c r="D264" s="11" t="e">
-        <f>VLOOKUP(E264,Tabla_combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E264" s="11"/>
@@ -4618,12 +4625,12 @@
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="11"/>
       <c r="B265" s="11" t="e">
-        <f>VLOOKUP(C265,Tabla_tipve,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C265" s="11"/>
       <c r="D265" s="11" t="e">
-        <f>VLOOKUP(E265,Tabla_combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E265" s="11"/>
@@ -4633,12 +4640,12 @@
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="11"/>
       <c r="B266" s="11" t="e">
-        <f>VLOOKUP(C266,Tabla_tipve,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C266" s="11"/>
       <c r="D266" s="11" t="e">
-        <f>VLOOKUP(E266,Tabla_combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E266" s="11"/>
@@ -4648,12 +4655,12 @@
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="11"/>
       <c r="B267" s="11" t="e">
-        <f>VLOOKUP(C267,Tabla_tipve,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C267" s="11"/>
       <c r="D267" s="11" t="e">
-        <f>VLOOKUP(E267,Tabla_combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E267" s="11"/>
@@ -4663,12 +4670,12 @@
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="11"/>
       <c r="B268" s="11" t="e">
-        <f>VLOOKUP(C268,Tabla_tipve,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C268" s="11"/>
       <c r="D268" s="11" t="e">
-        <f>VLOOKUP(E268,Tabla_combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E268" s="11"/>
@@ -4678,12 +4685,12 @@
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="11"/>
       <c r="B269" s="11" t="e">
-        <f>VLOOKUP(C269,Tabla_tipve,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C269" s="11"/>
       <c r="D269" s="11" t="e">
-        <f>VLOOKUP(E269,Tabla_combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E269" s="11"/>
@@ -4693,12 +4700,12 @@
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="11"/>
       <c r="B270" s="11" t="e">
-        <f>VLOOKUP(C270,Tabla_tipve,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C270" s="11"/>
       <c r="D270" s="11" t="e">
-        <f>VLOOKUP(E270,Tabla_combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E270" s="11"/>
@@ -4708,12 +4715,12 @@
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="11"/>
       <c r="B271" s="11" t="e">
-        <f>VLOOKUP(C271,Tabla_tipve,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C271" s="11"/>
       <c r="D271" s="11" t="e">
-        <f>VLOOKUP(E271,Tabla_combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E271" s="11"/>
@@ -4723,12 +4730,12 @@
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="11"/>
       <c r="B272" s="11" t="e">
-        <f>VLOOKUP(C272,Tabla_tipve,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C272" s="11"/>
       <c r="D272" s="11" t="e">
-        <f>VLOOKUP(E272,Tabla_combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E272" s="11"/>
@@ -4738,12 +4745,12 @@
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="11"/>
       <c r="B273" s="11" t="e">
-        <f>VLOOKUP(C273,Tabla_tipve,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C273" s="11"/>
       <c r="D273" s="11" t="e">
-        <f>VLOOKUP(E273,Tabla_combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E273" s="11"/>
@@ -4753,12 +4760,12 @@
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="11"/>
       <c r="B274" s="11" t="e">
-        <f>VLOOKUP(C274,Tabla_tipve,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C274" s="11"/>
       <c r="D274" s="11" t="e">
-        <f>VLOOKUP(E274,Tabla_combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E274" s="11"/>
@@ -4768,12 +4775,12 @@
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="11"/>
       <c r="B275" s="11" t="e">
-        <f>VLOOKUP(C275,Tabla_tipve,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C275" s="11"/>
       <c r="D275" s="11" t="e">
-        <f>VLOOKUP(E275,Tabla_combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E275" s="11"/>
@@ -4783,12 +4790,12 @@
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="11"/>
       <c r="B276" s="11" t="e">
-        <f>VLOOKUP(C276,Tabla_tipve,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C276" s="11"/>
       <c r="D276" s="11" t="e">
-        <f>VLOOKUP(E276,Tabla_combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E276" s="11"/>
@@ -4798,12 +4805,12 @@
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="11"/>
       <c r="B277" s="11" t="e">
-        <f>VLOOKUP(C277,Tabla_tipve,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C277" s="11"/>
       <c r="D277" s="11" t="e">
-        <f>VLOOKUP(E277,Tabla_combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E277" s="11"/>
@@ -4813,12 +4820,12 @@
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="11"/>
       <c r="B278" s="11" t="e">
-        <f>VLOOKUP(C278,Tabla_tipve,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C278" s="11"/>
       <c r="D278" s="11" t="e">
-        <f>VLOOKUP(E278,Tabla_combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E278" s="11"/>
@@ -4828,12 +4835,12 @@
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="11"/>
       <c r="B279" s="11" t="e">
-        <f>VLOOKUP(C279,Tabla_tipve,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C279" s="11"/>
       <c r="D279" s="11" t="e">
-        <f>VLOOKUP(E279,Tabla_combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E279" s="11"/>
@@ -4843,12 +4850,12 @@
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="11"/>
       <c r="B280" s="11" t="e">
-        <f>VLOOKUP(C280,Tabla_tipve,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C280" s="11"/>
       <c r="D280" s="11" t="e">
-        <f>VLOOKUP(E280,Tabla_combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E280" s="11"/>
@@ -4858,12 +4865,12 @@
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="11"/>
       <c r="B281" s="11" t="e">
-        <f>VLOOKUP(C281,Tabla_tipve,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C281" s="11"/>
       <c r="D281" s="11" t="e">
-        <f>VLOOKUP(E281,Tabla_combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E281" s="11"/>
@@ -4873,12 +4880,12 @@
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="11"/>
       <c r="B282" s="11" t="e">
-        <f>VLOOKUP(C282,Tabla_tipve,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C282" s="11"/>
       <c r="D282" s="11" t="e">
-        <f>VLOOKUP(E282,Tabla_combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E282" s="11"/>
@@ -4888,12 +4895,12 @@
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="11"/>
       <c r="B283" s="11" t="e">
-        <f>VLOOKUP(C283,Tabla_tipve,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C283" s="11"/>
       <c r="D283" s="11" t="e">
-        <f>VLOOKUP(E283,Tabla_combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E283" s="11"/>
@@ -4903,12 +4910,12 @@
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="11"/>
       <c r="B284" s="11" t="e">
-        <f>VLOOKUP(C284,Tabla_tipve,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C284" s="11"/>
       <c r="D284" s="11" t="e">
-        <f>VLOOKUP(E284,Tabla_combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E284" s="11"/>
@@ -4918,12 +4925,12 @@
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="11"/>
       <c r="B285" s="11" t="e">
-        <f>VLOOKUP(C285,Tabla_tipve,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C285" s="11"/>
       <c r="D285" s="11" t="e">
-        <f>VLOOKUP(E285,Tabla_combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E285" s="11"/>
@@ -4933,12 +4940,12 @@
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="11"/>
       <c r="B286" s="11" t="e">
-        <f>VLOOKUP(C286,Tabla_tipve,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C286" s="11"/>
       <c r="D286" s="11" t="e">
-        <f>VLOOKUP(E286,Tabla_combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E286" s="11"/>
@@ -4948,12 +4955,12 @@
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="11"/>
       <c r="B287" s="11" t="e">
-        <f>VLOOKUP(C287,Tabla_tipve,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C287" s="11"/>
       <c r="D287" s="11" t="e">
-        <f>VLOOKUP(E287,Tabla_combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E287" s="11"/>
@@ -4963,12 +4970,12 @@
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="11"/>
       <c r="B288" s="11" t="e">
-        <f>VLOOKUP(C288,Tabla_tipve,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C288" s="11"/>
       <c r="D288" s="11" t="e">
-        <f>VLOOKUP(E288,Tabla_combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E288" s="11"/>
@@ -4978,12 +4985,12 @@
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="11"/>
       <c r="B289" s="11" t="e">
-        <f>VLOOKUP(C289,Tabla_tipve,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C289" s="11"/>
       <c r="D289" s="11" t="e">
-        <f>VLOOKUP(E289,Tabla_combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E289" s="11"/>
@@ -4993,12 +5000,12 @@
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="11"/>
       <c r="B290" s="11" t="e">
-        <f>VLOOKUP(C290,Tabla_tipve,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C290" s="11"/>
       <c r="D290" s="11" t="e">
-        <f>VLOOKUP(E290,Tabla_combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E290" s="11"/>
@@ -5008,12 +5015,12 @@
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="11"/>
       <c r="B291" s="11" t="e">
-        <f>VLOOKUP(C291,Tabla_tipve,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C291" s="11"/>
       <c r="D291" s="11" t="e">
-        <f>VLOOKUP(E291,Tabla_combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E291" s="11"/>
@@ -5023,12 +5030,12 @@
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="11"/>
       <c r="B292" s="11" t="e">
-        <f>VLOOKUP(C292,Tabla_tipve,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C292" s="11"/>
       <c r="D292" s="11" t="e">
-        <f>VLOOKUP(E292,Tabla_combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E292" s="11"/>
@@ -5038,12 +5045,12 @@
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="11"/>
       <c r="B293" s="11" t="e">
-        <f>VLOOKUP(C293,Tabla_tipve,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C293" s="11"/>
       <c r="D293" s="11" t="e">
-        <f>VLOOKUP(E293,Tabla_combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E293" s="11"/>
@@ -5053,12 +5060,12 @@
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="11"/>
       <c r="B294" s="11" t="e">
-        <f>VLOOKUP(C294,Tabla_tipve,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C294" s="11"/>
       <c r="D294" s="11" t="e">
-        <f>VLOOKUP(E294,Tabla_combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E294" s="11"/>
@@ -5068,12 +5075,12 @@
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="11"/>
       <c r="B295" s="11" t="e">
-        <f>VLOOKUP(C295,Tabla_tipve,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C295" s="11"/>
       <c r="D295" s="11" t="e">
-        <f>VLOOKUP(E295,Tabla_combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E295" s="11"/>
@@ -5083,12 +5090,12 @@
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="11"/>
       <c r="B296" s="11" t="e">
-        <f>VLOOKUP(C296,Tabla_tipve,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C296" s="11"/>
       <c r="D296" s="11" t="e">
-        <f>VLOOKUP(E296,Tabla_combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E296" s="11"/>
@@ -5098,12 +5105,12 @@
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="11"/>
       <c r="B297" s="11" t="e">
-        <f>VLOOKUP(C297,Tabla_tipve,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C297" s="11"/>
       <c r="D297" s="11" t="e">
-        <f>VLOOKUP(E297,Tabla_combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E297" s="11"/>
@@ -5113,12 +5120,12 @@
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="11"/>
       <c r="B298" s="11" t="e">
-        <f>VLOOKUP(C298,Tabla_tipve,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C298" s="11"/>
       <c r="D298" s="11" t="e">
-        <f>VLOOKUP(E298,Tabla_combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E298" s="11"/>
@@ -5128,12 +5135,12 @@
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="11"/>
       <c r="B299" s="11" t="e">
-        <f>VLOOKUP(C299,Tabla_tipve,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C299" s="11"/>
       <c r="D299" s="11" t="e">
-        <f>VLOOKUP(E299,Tabla_combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E299" s="11"/>
@@ -5143,12 +5150,12 @@
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="11"/>
       <c r="B300" s="11" t="e">
-        <f>VLOOKUP(C300,Tabla_tipve,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C300" s="11"/>
       <c r="D300" s="11" t="e">
-        <f>VLOOKUP(E300,Tabla_combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E300" s="11"/>
@@ -5158,12 +5165,12 @@
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="11"/>
       <c r="B301" s="11" t="e">
-        <f>VLOOKUP(C301,Tabla_tipve,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C301" s="11"/>
       <c r="D301" s="11" t="e">
-        <f>VLOOKUP(E301,Tabla_combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E301" s="11"/>
@@ -5173,12 +5180,12 @@
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="11"/>
       <c r="B302" s="11" t="e">
-        <f>VLOOKUP(C302,Tabla_tipve,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C302" s="11"/>
       <c r="D302" s="11" t="e">
-        <f>VLOOKUP(E302,Tabla_combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E302" s="11"/>
@@ -5188,12 +5195,12 @@
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="11"/>
       <c r="B303" s="11" t="e">
-        <f>VLOOKUP(C303,Tabla_tipve,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C303" s="11"/>
       <c r="D303" s="11" t="e">
-        <f>VLOOKUP(E303,Tabla_combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E303" s="11"/>
@@ -5203,12 +5210,12 @@
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="11"/>
       <c r="B304" s="11" t="e">
-        <f>VLOOKUP(C304,Tabla_tipve,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C304" s="11"/>
       <c r="D304" s="11" t="e">
-        <f>VLOOKUP(E304,Tabla_combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E304" s="11"/>
@@ -5218,12 +5225,12 @@
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="11"/>
       <c r="B305" s="11" t="e">
-        <f>VLOOKUP(C305,Tabla_tipve,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C305" s="11"/>
       <c r="D305" s="11" t="e">
-        <f>VLOOKUP(E305,Tabla_combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E305" s="11"/>
@@ -5233,12 +5240,12 @@
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="11"/>
       <c r="B306" s="11" t="e">
-        <f>VLOOKUP(C306,Tabla_tipve,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C306" s="11"/>
       <c r="D306" s="11" t="e">
-        <f>VLOOKUP(E306,Tabla_combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E306" s="11"/>
@@ -5248,12 +5255,12 @@
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="11"/>
       <c r="B307" s="11" t="e">
-        <f>VLOOKUP(C307,Tabla_tipve,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C307" s="11"/>
       <c r="D307" s="11" t="e">
-        <f>VLOOKUP(E307,Tabla_combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E307" s="11"/>
@@ -5263,12 +5270,12 @@
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="11"/>
       <c r="B308" s="11" t="e">
-        <f>VLOOKUP(C308,Tabla_tipve,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C308" s="11"/>
       <c r="D308" s="11" t="e">
-        <f>VLOOKUP(E308,Tabla_combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E308" s="11"/>
@@ -5278,12 +5285,12 @@
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="11"/>
       <c r="B309" s="11" t="e">
-        <f>VLOOKUP(C309,Tabla_tipve,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C309" s="11"/>
       <c r="D309" s="11" t="e">
-        <f>VLOOKUP(E309,Tabla_combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E309" s="11"/>
@@ -5293,12 +5300,12 @@
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="11"/>
       <c r="B310" s="11" t="e">
-        <f>VLOOKUP(C310,Tabla_tipve,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C310" s="11"/>
       <c r="D310" s="11" t="e">
-        <f>VLOOKUP(E310,Tabla_combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E310" s="11"/>
@@ -5308,12 +5315,12 @@
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="11"/>
       <c r="B311" s="11" t="e">
-        <f>VLOOKUP(C311,Tabla_tipve,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C311" s="11"/>
       <c r="D311" s="11" t="e">
-        <f>VLOOKUP(E311,Tabla_combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E311" s="11"/>
@@ -5321,7 +5328,7 @@
       <c r="G311" s="12"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="/uHvF1oV2tqWfsdhlZCs0exgrG2CEoIsNDbX8dL9BdqFDNFXkFm4+WGJQhX5MJYAIJtQkBqK9OOwaOqNhspMBw==" saltValue="xYSlZTC+hDYBs9eh9/47Gw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="6yfmXwQlB7EyYxMFR7q1Kroa+o3SuPGuh2hwxZ/6cr9KvE7eUT41VuFUl0UlGzE+ZxM3bPv9vXWkYVNEv5Ui0Q==" saltValue="ablAKOAs8Udqu5fWDFDcyg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A311" xr:uid="{CDD6B574-3AFB-4560-957C-6F7C0CA0C5D4}">
       <formula1>Lista_Anno</formula1>
@@ -5339,6 +5346,7 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5360,16 +5368,16 @@
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -5377,13 +5385,13 @@
         <v>2010</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G6" s="4">
         <v>1</v>
@@ -5394,13 +5402,13 @@
         <v>2011</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D7" s="4">
         <v>2</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G7" s="4">
         <v>2</v>
@@ -5411,13 +5419,13 @@
         <v>2012</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D8" s="4">
         <v>3</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G8" s="4">
         <v>3</v>
@@ -5428,13 +5436,13 @@
         <v>2013</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D9" s="4">
         <v>4</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G9" s="4">
         <v>4</v>
@@ -5445,7 +5453,7 @@
         <v>2014</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D10" s="4">
         <v>5</v>
@@ -5456,7 +5464,7 @@
         <v>2015</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D11" s="4">
         <v>6</v>

--- a/back-end/Web Dinamico 2/MRVMinem/Documentos/4.1 Plantilla_Vehiculos_electricos_Consumo.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/Documentos/4.1 Plantilla_Vehiculos_electricos_Consumo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Web Dinamico 2\MRVMinem\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E28883-8764-4A29-BD9C-8E1D2DE1B8E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657BFAFF-791B-4294-BD83-75EFB1951867}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{404BD825-DD8F-4BD6-BD9D-EC9C81DC8949}"/>
   </bookViews>
@@ -38,42 +38,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Dell</author>
-  </authors>
-  <commentList>
-    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{19840F98-BCD1-4969-AF06-1D575C54E886}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Registrar sus datos según el ejemplo brindado. Borre estos datos y complete los suyos.</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>Año</t>
   </si>
@@ -149,12 +115,15 @@
   <si>
     <t>Placa del vehículo eléctrico. Inserte su dato.</t>
   </si>
+  <si>
+    <t>Registrar sus datos según el ejemplo brindado. Borre estos datos y complete los suyos.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,17 +148,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
+      <sz val="12"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -218,7 +181,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -265,11 +228,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -308,6 +308,15 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -622,11 +631,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CDE5F59-D557-4A84-9E15-1D54D969FD3F}">
-  <dimension ref="A1:G311"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CDE5F59-D557-4A84-9E15-1D54D969FD3F}">
+  <dimension ref="A1:G312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,64 +672,60 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="17"/>
+    </row>
+    <row r="3" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="2" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="2" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
         <v>2018</v>
       </c>
-      <c r="B3" s="13">
-        <f t="shared" ref="B3:B66" si="0">VLOOKUP(C3,Tabla_tipve,2,)</f>
+      <c r="B4" s="13">
+        <f t="shared" ref="B4:B67" si="0">VLOOKUP(C4,Tabla_tipve,2,)</f>
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="13">
-        <f t="shared" ref="D3:D66" si="1">VLOOKUP(E3,Tabla_combustible,2,)</f>
+      <c r="D4" s="13">
+        <f t="shared" ref="D4:D67" si="1">VLOOKUP(E4,Tabla_combustible,2,)</f>
         <v>3</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F4" s="14">
         <v>222</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G4" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
@@ -768,19 +773,19 @@
       <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
@@ -1655,12 +1660,12 @@
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
       <c r="B67" s="11" t="e">
-        <f t="shared" ref="B67:B130" si="2">VLOOKUP(C67,Tabla_tipve,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C67" s="11"/>
       <c r="D67" s="11" t="e">
-        <f t="shared" ref="D67:D130" si="3">VLOOKUP(E67,Tabla_combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E67" s="11"/>
@@ -1670,12 +1675,12 @@
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
       <c r="B68" s="11" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="B68:B131" si="2">VLOOKUP(C68,Tabla_tipve,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="C68" s="11"/>
       <c r="D68" s="11" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="D68:D131" si="3">VLOOKUP(E68,Tabla_combustible,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="E68" s="11"/>
@@ -2615,12 +2620,12 @@
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="11"/>
       <c r="B131" s="11" t="e">
-        <f t="shared" ref="B131:B194" si="4">VLOOKUP(C131,Tabla_tipve,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C131" s="11"/>
       <c r="D131" s="11" t="e">
-        <f t="shared" ref="D131:D194" si="5">VLOOKUP(E131,Tabla_combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E131" s="11"/>
@@ -2630,12 +2635,12 @@
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="11"/>
       <c r="B132" s="11" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="B132:B195" si="4">VLOOKUP(C132,Tabla_tipve,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="C132" s="11"/>
       <c r="D132" s="11" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="D132:D195" si="5">VLOOKUP(E132,Tabla_combustible,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="E132" s="11"/>
@@ -3575,12 +3580,12 @@
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="11"/>
       <c r="B195" s="11" t="e">
-        <f t="shared" ref="B195:B258" si="6">VLOOKUP(C195,Tabla_tipve,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C195" s="11"/>
       <c r="D195" s="11" t="e">
-        <f t="shared" ref="D195:D258" si="7">VLOOKUP(E195,Tabla_combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E195" s="11"/>
@@ -3590,12 +3595,12 @@
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="11"/>
       <c r="B196" s="11" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="B196:B259" si="6">VLOOKUP(C196,Tabla_tipve,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="C196" s="11"/>
       <c r="D196" s="11" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="D196:D259" si="7">VLOOKUP(E196,Tabla_combustible,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="E196" s="11"/>
@@ -4535,12 +4540,12 @@
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="11"/>
       <c r="B259" s="11" t="e">
-        <f t="shared" ref="B259:B322" si="8">VLOOKUP(C259,Tabla_tipve,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C259" s="11"/>
       <c r="D259" s="11" t="e">
-        <f t="shared" ref="D259:D322" si="9">VLOOKUP(E259,Tabla_combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E259" s="11"/>
@@ -4550,12 +4555,12 @@
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="11"/>
       <c r="B260" s="11" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="B260:B312" si="8">VLOOKUP(C260,Tabla_tipve,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="C260" s="11"/>
       <c r="D260" s="11" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="D260:D312" si="9">VLOOKUP(E260,Tabla_combustible,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="E260" s="11"/>
@@ -5327,26 +5332,43 @@
       <c r="F311" s="12"/>
       <c r="G311" s="12"/>
     </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A312" s="11"/>
+      <c r="B312" s="11" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C312" s="11"/>
+      <c r="D312" s="11" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E312" s="11"/>
+      <c r="F312" s="12"/>
+      <c r="G312" s="12"/>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="6yfmXwQlB7EyYxMFR7q1Kroa+o3SuPGuh2hwxZ/6cr9KvE7eUT41VuFUl0UlGzE+ZxM3bPv9vXWkYVNEv5Ui0Q==" saltValue="ablAKOAs8Udqu5fWDFDcyg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Eu+Fq9ET3iWLMt7eKFjhomfL6j+Px5MSF4cFVf9Z/IxH8VpbZ3oIAlVno73CSQi1RD0YlG4C21VA7ienUh9MLA==" saltValue="XeX4b54eo0s8BDyK8gDKGA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <mergeCells count="1">
+    <mergeCell ref="A2:G2"/>
+  </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A311" xr:uid="{CDD6B574-3AFB-4560-957C-6F7C0CA0C5D4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A312" xr:uid="{CDD6B574-3AFB-4560-957C-6F7C0CA0C5D4}">
       <formula1>Lista_Anno</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C311" xr:uid="{FD34BEB7-6634-406C-95FD-35DE82472AB3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C312" xr:uid="{FD34BEB7-6634-406C-95FD-35DE82472AB3}">
       <formula1>Lista_Tipve</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E311" xr:uid="{9AA70F2C-A5B0-435A-A4D0-ABA1394D6E3A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E312" xr:uid="{9AA70F2C-A5B0-435A-A4D0-ABA1394D6E3A}">
       <formula1>Lista_combustible</formula1>
     </dataValidation>
-    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" sqref="F3:F311" xr:uid="{5EE1052B-03BB-4647-8BC6-6FD5D6DA446D}">
+    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" sqref="F4:F312" xr:uid="{5EE1052B-03BB-4647-8BC6-6FD5D6DA446D}">
       <formula1>0</formula1>
       <formula2>9999999.99</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
